--- a/resultats_sys.xlsx
+++ b/resultats_sys.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cloudlasalle-my.sharepoint.com/personal/hamilton_araujo_unilasalle_fr/Documents/Bureau/maths_partage/app_maths/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="8_{64654894-7BCD-4DDA-A684-01A8030076A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{721D18CB-2DE1-4429-BFFD-E37E05A3E1C1}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="8_{64654894-7BCD-4DDA-A684-01A8030076A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7C20ACF1-DE07-CA47-9D3B-2F7B6062C50D}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="1485" windowWidth="23010" windowHeight="13545" xr2:uid="{C4993497-0429-4237-A44D-514794E26B85}"/>
+    <workbookView xWindow="1240" yWindow="500" windowWidth="27560" windowHeight="17500" activeTab="1" xr2:uid="{C4993497-0429-4237-A44D-514794E26B85}"/>
   </bookViews>
   <sheets>
     <sheet name="t1_sys_1712" sheetId="1" r:id="rId1"/>
+    <sheet name="t2_sys_2012" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="561">
   <si>
     <t>Nom de famille</t>
   </si>
@@ -1218,6 +1219,507 @@
   </si>
   <si>
     <t>16 min 54 s</t>
+  </si>
+  <si>
+    <t>GIBERT</t>
+  </si>
+  <si>
+    <t>Garance</t>
+  </si>
+  <si>
+    <t>garance.gibert@etu.unilasalle.fr</t>
+  </si>
+  <si>
+    <t>3 min 27 s</t>
+  </si>
+  <si>
+    <t>8 min 44 s</t>
+  </si>
+  <si>
+    <t>AUBERT</t>
+  </si>
+  <si>
+    <t>lucie.aubert@etu.unilasalle.fr</t>
+  </si>
+  <si>
+    <t>15 min 35 s</t>
+  </si>
+  <si>
+    <t>14 min 9 s</t>
+  </si>
+  <si>
+    <t>OLIVIER</t>
+  </si>
+  <si>
+    <t>Camille</t>
+  </si>
+  <si>
+    <t>camille.olivier@etu.unilasalle.fr</t>
+  </si>
+  <si>
+    <t>26 min 35 s</t>
+  </si>
+  <si>
+    <t>MARCHAND</t>
+  </si>
+  <si>
+    <t>caroline.marchand@etu.unilasalle.fr</t>
+  </si>
+  <si>
+    <t>17 min 54 s</t>
+  </si>
+  <si>
+    <t>13 min 9 s</t>
+  </si>
+  <si>
+    <t>3 min 24 s</t>
+  </si>
+  <si>
+    <t>LAURENT</t>
+  </si>
+  <si>
+    <t>Eliott</t>
+  </si>
+  <si>
+    <t>eliott.laurent@etu.unilasalle.fr</t>
+  </si>
+  <si>
+    <t>16 min 49 s</t>
+  </si>
+  <si>
+    <t>MARTIN</t>
+  </si>
+  <si>
+    <t>Abigael</t>
+  </si>
+  <si>
+    <t>abigael.martin@etu.unilasalle.fr</t>
+  </si>
+  <si>
+    <t>19 min 44 s</t>
+  </si>
+  <si>
+    <t>FRANCHAISE</t>
+  </si>
+  <si>
+    <t>flavie.franchaise@etu.unilasalle.fr</t>
+  </si>
+  <si>
+    <t>20 min 43 s</t>
+  </si>
+  <si>
+    <t>FOND</t>
+  </si>
+  <si>
+    <t>maxime.fond@etu.unilasalle.fr</t>
+  </si>
+  <si>
+    <t>2 min 51 s</t>
+  </si>
+  <si>
+    <t>THEETTEN</t>
+  </si>
+  <si>
+    <t>heloise.theetten@etu.unilasalle.fr</t>
+  </si>
+  <si>
+    <t>8 min 59 s</t>
+  </si>
+  <si>
+    <t>41 s</t>
+  </si>
+  <si>
+    <t>CHOPIN</t>
+  </si>
+  <si>
+    <t>Zelie</t>
+  </si>
+  <si>
+    <t>zelie.chopin@etu.unilasalle.fr</t>
+  </si>
+  <si>
+    <t>21 min 19 s</t>
+  </si>
+  <si>
+    <t>DUFOIX</t>
+  </si>
+  <si>
+    <t>Perline</t>
+  </si>
+  <si>
+    <t>perline.dufoix@etu.unilasalle.fr</t>
+  </si>
+  <si>
+    <t>24 min 42 s</t>
+  </si>
+  <si>
+    <t>DUPUIT</t>
+  </si>
+  <si>
+    <t>Alban</t>
+  </si>
+  <si>
+    <t>alban.dupuit@etu.unilasalle.fr</t>
+  </si>
+  <si>
+    <t>12 min 6 s</t>
+  </si>
+  <si>
+    <t>ZANG ATANGANA</t>
+  </si>
+  <si>
+    <t>Anais</t>
+  </si>
+  <si>
+    <t>anais.zangatangana@etu.unilasalle.fr</t>
+  </si>
+  <si>
+    <t>23 min 31 s</t>
+  </si>
+  <si>
+    <t>HARDY</t>
+  </si>
+  <si>
+    <t>Louis</t>
+  </si>
+  <si>
+    <t>louis.hardy@etu.unilasalle.fr</t>
+  </si>
+  <si>
+    <t>7 min 42 s</t>
+  </si>
+  <si>
+    <t>19 min 6 s</t>
+  </si>
+  <si>
+    <t>24 min 30 s</t>
+  </si>
+  <si>
+    <t>DJEDANEM</t>
+  </si>
+  <si>
+    <t>Noe</t>
+  </si>
+  <si>
+    <t>noe.djedanem@etu.unilasalle.fr</t>
+  </si>
+  <si>
+    <t>12 min 16 s</t>
+  </si>
+  <si>
+    <t>17 min 28 s</t>
+  </si>
+  <si>
+    <t>GONON</t>
+  </si>
+  <si>
+    <t>Yoan</t>
+  </si>
+  <si>
+    <t>yoan.gonon@etu.unilasalle.fr</t>
+  </si>
+  <si>
+    <t>29 min 30 s</t>
+  </si>
+  <si>
+    <t>LE CAM</t>
+  </si>
+  <si>
+    <t>Eloise</t>
+  </si>
+  <si>
+    <t>eloise.lecam@etu.unilasalle.fr</t>
+  </si>
+  <si>
+    <t>14 min 30 s</t>
+  </si>
+  <si>
+    <t>LAMBERT</t>
+  </si>
+  <si>
+    <t>Marion</t>
+  </si>
+  <si>
+    <t>marion.lambert@etu.unilasalle.fr</t>
+  </si>
+  <si>
+    <t>23 min 26 s</t>
+  </si>
+  <si>
+    <t>LESAING</t>
+  </si>
+  <si>
+    <t>Constance</t>
+  </si>
+  <si>
+    <t>constance.lesaing@etu.unilasalle.fr</t>
+  </si>
+  <si>
+    <t>16 min 15 s</t>
+  </si>
+  <si>
+    <t>BRACQ</t>
+  </si>
+  <si>
+    <t>Margot</t>
+  </si>
+  <si>
+    <t>margot.bracq@etu.unilasalle.fr</t>
+  </si>
+  <si>
+    <t>26 min 57 s</t>
+  </si>
+  <si>
+    <t>12 min 22 s</t>
+  </si>
+  <si>
+    <t>5 min 14 s</t>
+  </si>
+  <si>
+    <t>PLATEAU</t>
+  </si>
+  <si>
+    <t>Corentin</t>
+  </si>
+  <si>
+    <t>corentin.plateau@etu.unilasalle.fr</t>
+  </si>
+  <si>
+    <t>12 min 57 s</t>
+  </si>
+  <si>
+    <t>9 s</t>
+  </si>
+  <si>
+    <t>14 min 5 s</t>
+  </si>
+  <si>
+    <t>21 min 47 s</t>
+  </si>
+  <si>
+    <t>DUBOT</t>
+  </si>
+  <si>
+    <t>victor.dubot@etu.unilasalle.fr</t>
+  </si>
+  <si>
+    <t>14 min 13 s</t>
+  </si>
+  <si>
+    <t>BARBIER</t>
+  </si>
+  <si>
+    <t>Eliot</t>
+  </si>
+  <si>
+    <t>eliot.barbier@etu.unilasalle.fr</t>
+  </si>
+  <si>
+    <t>17 min</t>
+  </si>
+  <si>
+    <t>TROY</t>
+  </si>
+  <si>
+    <t>Josephine</t>
+  </si>
+  <si>
+    <t>josephine.troy@etu.unilasalle.fr</t>
+  </si>
+  <si>
+    <t>5 min 58 s</t>
+  </si>
+  <si>
+    <t>DEPARIS</t>
+  </si>
+  <si>
+    <t>victor.deparis@etu.unilasalle.fr</t>
+  </si>
+  <si>
+    <t>4 min 26 s</t>
+  </si>
+  <si>
+    <t>LOISEAU CLERFAYTS</t>
+  </si>
+  <si>
+    <t>Maxence</t>
+  </si>
+  <si>
+    <t>maxence.loiseauclerfayts@etu.unilasalle.fr</t>
+  </si>
+  <si>
+    <t>15 min 4 s</t>
+  </si>
+  <si>
+    <t>LEROUX</t>
+  </si>
+  <si>
+    <t>paul.leroux@etu.unilasalle.fr</t>
+  </si>
+  <si>
+    <t>13 min 48 s</t>
+  </si>
+  <si>
+    <t>VALENTIN</t>
+  </si>
+  <si>
+    <t>Ines</t>
+  </si>
+  <si>
+    <t>ines.valentin@etu.unilasalle.fr</t>
+  </si>
+  <si>
+    <t>53 s</t>
+  </si>
+  <si>
+    <t>DUDORET</t>
+  </si>
+  <si>
+    <t>jules.dudoret@etu.unilasalle.fr</t>
+  </si>
+  <si>
+    <t>22 min 21 s</t>
+  </si>
+  <si>
+    <t>18 min 43 s</t>
+  </si>
+  <si>
+    <t>29 min 4 s</t>
+  </si>
+  <si>
+    <t>RIBAULT</t>
+  </si>
+  <si>
+    <t>charlotte.ribault@etu.unilasalle.fr</t>
+  </si>
+  <si>
+    <t>9 min 10 s</t>
+  </si>
+  <si>
+    <t>32 s</t>
+  </si>
+  <si>
+    <t>ZENAIDI</t>
+  </si>
+  <si>
+    <t>Alyssa</t>
+  </si>
+  <si>
+    <t>alyssa.zenaidi@etu.unilasalle.fr</t>
+  </si>
+  <si>
+    <t>23 min 9 s</t>
+  </si>
+  <si>
+    <t>10 min 7 s</t>
+  </si>
+  <si>
+    <t>SEMBLAT</t>
+  </si>
+  <si>
+    <t>marie.semblat@etu.unilasalle.fr</t>
+  </si>
+  <si>
+    <t>2 min 43 s</t>
+  </si>
+  <si>
+    <t>15 s</t>
+  </si>
+  <si>
+    <t>ANSART</t>
+  </si>
+  <si>
+    <t>Julie</t>
+  </si>
+  <si>
+    <t>julie.ansart@etu.unilasalle.fr</t>
+  </si>
+  <si>
+    <t>1 min 50 s</t>
+  </si>
+  <si>
+    <t>SOISSON</t>
+  </si>
+  <si>
+    <t>eloise.soisson@etu.unilasalle.fr</t>
+  </si>
+  <si>
+    <t>7 min 57 s</t>
+  </si>
+  <si>
+    <t>10 min 12 s</t>
+  </si>
+  <si>
+    <t>7 min 31 s</t>
+  </si>
+  <si>
+    <t>ALLART</t>
+  </si>
+  <si>
+    <t>Abigaelle</t>
+  </si>
+  <si>
+    <t>abigaelle.allart@etu.unilasalle.fr</t>
+  </si>
+  <si>
+    <t>9 min 55 s</t>
+  </si>
+  <si>
+    <t>1 min 36 s</t>
+  </si>
+  <si>
+    <t>6 min 43 s</t>
+  </si>
+  <si>
+    <t>5 min 53 s</t>
+  </si>
+  <si>
+    <t>NORMAND</t>
+  </si>
+  <si>
+    <t>valentin.normand@etu.unilasalle.fr</t>
+  </si>
+  <si>
+    <t>18 min 34 s</t>
+  </si>
+  <si>
+    <t>PORTEMAN</t>
+  </si>
+  <si>
+    <t>nathan.porteman@etu.unilasalle.fr</t>
+  </si>
+  <si>
+    <t>13 min 59 s</t>
+  </si>
+  <si>
+    <t>CHALIN</t>
+  </si>
+  <si>
+    <t>maxence.chalin@etu.unilasalle.fr</t>
+  </si>
+  <si>
+    <t>21 min 1 s</t>
+  </si>
+  <si>
+    <t>9 min 40 s</t>
+  </si>
+  <si>
+    <t>ARGAILLOT</t>
+  </si>
+  <si>
+    <t>nicolas.argaillot@etu.unilasalle.fr</t>
+  </si>
+  <si>
+    <t>33 min 5 s</t>
+  </si>
+  <si>
+    <t>DUMAS-VINCENT</t>
+  </si>
+  <si>
+    <t>julie.dumas-vincent@etu.unilasalle.fr</t>
+  </si>
+  <si>
+    <t>14 min 26 s</t>
   </si>
 </sst>
 </file>
@@ -1236,6 +1738,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1259,11 +1762,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1601,19 +2103,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{408ADF9E-639B-4133-815A-05974B5DBDC7}">
   <dimension ref="A1:J103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="51.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="51.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1645,7 +2147,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -1662,23 +2164,23 @@
       <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="1">
         <v>4</v>
       </c>
-      <c r="G2" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="H2" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="I2" s="3">
-        <v>0</v>
-      </c>
-      <c r="J2" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G2" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="H2" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -1695,23 +2197,23 @@
       <c r="E3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="1">
         <v>5.5</v>
       </c>
-      <c r="G3" s="3">
-        <v>0</v>
-      </c>
-      <c r="H3" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="I3" s="3">
-        <v>3</v>
-      </c>
-      <c r="J3" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="I3" s="1">
+        <v>3</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -1728,23 +2230,23 @@
       <c r="E4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="1">
         <v>10</v>
       </c>
-      <c r="G4" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="H4" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="I4" s="3">
-        <v>3</v>
-      </c>
-      <c r="J4" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G4" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="H4" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="I4" s="1">
+        <v>3</v>
+      </c>
+      <c r="J4" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
@@ -1761,23 +2263,23 @@
       <c r="E5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="1">
         <v>5.5</v>
       </c>
-      <c r="G5" s="3">
-        <v>0</v>
-      </c>
-      <c r="H5" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="I5" s="3">
-        <v>3</v>
-      </c>
-      <c r="J5" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="I5" s="1">
+        <v>3</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>25</v>
       </c>
@@ -1794,23 +2296,23 @@
       <c r="E6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="1">
         <v>10</v>
       </c>
-      <c r="G6" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="H6" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="I6" s="3">
-        <v>3</v>
-      </c>
-      <c r="J6" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G6" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="H6" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="I6" s="1">
+        <v>3</v>
+      </c>
+      <c r="J6" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>29</v>
       </c>
@@ -1827,23 +2329,23 @@
       <c r="E7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="G7" s="3">
-        <v>0</v>
-      </c>
-      <c r="H7" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="I7" s="3">
-        <v>0</v>
-      </c>
-      <c r="J7" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F7" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>33</v>
       </c>
@@ -1860,23 +2362,23 @@
       <c r="E8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="1">
         <v>4</v>
       </c>
-      <c r="G8" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="H8" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G8" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="H8" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>37</v>
       </c>
@@ -1893,23 +2395,23 @@
       <c r="E9" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
-      <c r="H9" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
-      <c r="J9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F9" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>41</v>
       </c>
@@ -1926,23 +2428,23 @@
       <c r="E10" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="1">
         <v>4</v>
       </c>
-      <c r="G10" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="H10" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G10" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="H10" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>45</v>
       </c>
@@ -1959,23 +2461,23 @@
       <c r="E11" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="1">
         <v>4</v>
       </c>
-      <c r="G11" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="H11" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="I11" s="3">
-        <v>0</v>
-      </c>
-      <c r="J11" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G11" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="H11" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>49</v>
       </c>
@@ -1992,23 +2494,23 @@
       <c r="E12" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="1">
         <v>10</v>
       </c>
-      <c r="G12" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="H12" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="I12" s="3">
-        <v>3</v>
-      </c>
-      <c r="J12" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G12" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="H12" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="I12" s="1">
+        <v>3</v>
+      </c>
+      <c r="J12" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>53</v>
       </c>
@@ -2025,23 +2527,23 @@
       <c r="E13" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="1">
         <v>10</v>
       </c>
-      <c r="G13" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="H13" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="I13" s="3">
-        <v>3</v>
-      </c>
-      <c r="J13" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G13" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="H13" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="I13" s="1">
+        <v>3</v>
+      </c>
+      <c r="J13" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>57</v>
       </c>
@@ -2058,23 +2560,23 @@
       <c r="E14" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="1">
         <v>10</v>
       </c>
-      <c r="G14" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="H14" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="I14" s="3">
-        <v>3</v>
-      </c>
-      <c r="J14" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G14" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="H14" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="I14" s="1">
+        <v>3</v>
+      </c>
+      <c r="J14" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>61</v>
       </c>
@@ -2091,23 +2593,23 @@
       <c r="E15" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="1">
         <v>4</v>
       </c>
-      <c r="G15" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="H15" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G15" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="H15" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>65</v>
       </c>
@@ -2124,23 +2626,23 @@
       <c r="E16" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="1">
         <v>10</v>
       </c>
-      <c r="G16" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="H16" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="I16" s="3">
-        <v>3</v>
-      </c>
-      <c r="J16" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G16" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="H16" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="I16" s="1">
+        <v>3</v>
+      </c>
+      <c r="J16" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>69</v>
       </c>
@@ -2157,23 +2659,23 @@
       <c r="E17" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="1">
         <v>7</v>
       </c>
-      <c r="G17" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="H17" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
-      <c r="J17" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G17" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="H17" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>73</v>
       </c>
@@ -2190,23 +2692,23 @@
       <c r="E18" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="1">
         <v>7</v>
       </c>
-      <c r="G18" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="H18" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="I18" s="3">
-        <v>3</v>
-      </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G18" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="H18" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="I18" s="1">
+        <v>3</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>77</v>
       </c>
@@ -2223,23 +2725,23 @@
       <c r="E19" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="1">
         <v>7</v>
       </c>
-      <c r="G19" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="H19" s="3">
+      <c r="G19" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="H19" s="1">
         <v>2.5</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="J19" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J19" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>82</v>
       </c>
@@ -2256,23 +2758,23 @@
       <c r="E20" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F20" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
+      <c r="F20" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1">
         <v>2.5</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>86</v>
       </c>
@@ -2289,23 +2791,23 @@
       <c r="E21" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="1">
         <v>7</v>
       </c>
-      <c r="G21" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="H21" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="I21" s="3">
-        <v>3</v>
-      </c>
-      <c r="J21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G21" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="H21" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="I21" s="1">
+        <v>3</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>90</v>
       </c>
@@ -2322,23 +2824,23 @@
       <c r="E22" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="1">
         <v>5.5</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1">
         <v>2.5</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="J22" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J22" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>94</v>
       </c>
@@ -2355,23 +2857,23 @@
       <c r="E23" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="1">
         <v>4</v>
       </c>
-      <c r="G23" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="H23" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G23" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="H23" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>98</v>
       </c>
@@ -2388,23 +2890,23 @@
       <c r="E24" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="1">
         <v>5.5</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="I24" s="3">
-        <v>3</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="I24" s="1">
+        <v>3</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>102</v>
       </c>
@@ -2421,23 +2923,23 @@
       <c r="E25" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="F25" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="G25" s="3">
-        <v>0</v>
-      </c>
-      <c r="H25" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="I25" s="3">
+      <c r="F25" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="I25" s="1">
         <v>0</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>106</v>
       </c>
@@ -2454,23 +2956,23 @@
       <c r="E26" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="1">
         <v>10</v>
       </c>
-      <c r="G26" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="H26" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="I26" s="3">
-        <v>3</v>
-      </c>
-      <c r="J26" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G26" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="H26" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="I26" s="1">
+        <v>3</v>
+      </c>
+      <c r="J26" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>110</v>
       </c>
@@ -2487,23 +2989,23 @@
       <c r="E27" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="1">
         <v>5.5</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
-      <c r="H27" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="I27" s="3">
-        <v>3</v>
-      </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G27" s="1">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="I27" s="1">
+        <v>3</v>
+      </c>
+      <c r="J27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>114</v>
       </c>
@@ -2520,23 +3022,23 @@
       <c r="E28" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="F28" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="G28" s="3">
-        <v>0</v>
-      </c>
-      <c r="H28" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="I28" s="3">
+      <c r="F28" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="I28" s="1">
         <v>0</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>118</v>
       </c>
@@ -2553,23 +3055,23 @@
       <c r="E29" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="1">
         <v>8.5</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="I29" s="3">
-        <v>3</v>
-      </c>
-      <c r="J29" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G29" s="1">
+        <v>0</v>
+      </c>
+      <c r="H29" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="I29" s="1">
+        <v>3</v>
+      </c>
+      <c r="J29" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>122</v>
       </c>
@@ -2586,23 +3088,23 @@
       <c r="E30" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F30" s="1">
         <v>4</v>
       </c>
-      <c r="G30" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="H30" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="I30" s="3">
+      <c r="G30" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="H30" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="I30" s="1">
         <v>0</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>126</v>
       </c>
@@ -2619,23 +3121,23 @@
       <c r="E31" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F31" s="1">
         <v>4</v>
       </c>
-      <c r="G31" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="H31" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="I31" s="3">
-        <v>0</v>
-      </c>
-      <c r="J31" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G31" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="H31" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="I31" s="1">
+        <v>0</v>
+      </c>
+      <c r="J31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>130</v>
       </c>
@@ -2652,23 +3154,23 @@
       <c r="E32" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32" s="1">
         <v>5.5</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="I32" s="3">
-        <v>3</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G32" s="1">
+        <v>0</v>
+      </c>
+      <c r="H32" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="I32" s="1">
+        <v>3</v>
+      </c>
+      <c r="J32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>134</v>
       </c>
@@ -2685,23 +3187,23 @@
       <c r="E33" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F33" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
-      <c r="H33" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="I33" s="3">
+      <c r="F33" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0</v>
+      </c>
+      <c r="H33" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="I33" s="1">
         <v>0</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>138</v>
       </c>
@@ -2718,23 +3220,23 @@
       <c r="E34" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F34" s="1">
         <v>5.5</v>
       </c>
-      <c r="G34" s="3">
-        <v>0</v>
-      </c>
-      <c r="H34" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="I34" s="3">
-        <v>3</v>
-      </c>
-      <c r="J34" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G34" s="1">
+        <v>0</v>
+      </c>
+      <c r="H34" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="I34" s="1">
+        <v>3</v>
+      </c>
+      <c r="J34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>142</v>
       </c>
@@ -2751,23 +3253,23 @@
       <c r="E35" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F35" s="1">
         <v>7</v>
       </c>
-      <c r="G35" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="H35" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
-      <c r="J35" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G35" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="H35" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="I35" s="1">
+        <v>0</v>
+      </c>
+      <c r="J35" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>146</v>
       </c>
@@ -2784,23 +3286,23 @@
       <c r="E36" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="F36" s="3">
+      <c r="F36" s="1">
         <v>7</v>
       </c>
-      <c r="G36" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="H36" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="I36" s="3">
-        <v>0</v>
-      </c>
-      <c r="J36" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G36" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="H36" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="I36" s="1">
+        <v>0</v>
+      </c>
+      <c r="J36" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>150</v>
       </c>
@@ -2817,23 +3319,23 @@
       <c r="E37" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F37" s="3">
+      <c r="F37" s="1">
         <v>4</v>
       </c>
-      <c r="G37" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="H37" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="I37" s="3">
-        <v>0</v>
-      </c>
-      <c r="J37" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G37" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="H37" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="I37" s="1">
+        <v>0</v>
+      </c>
+      <c r="J37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>152</v>
       </c>
@@ -2850,23 +3352,23 @@
       <c r="E38" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F38" s="3">
+      <c r="F38" s="1">
         <v>4</v>
       </c>
-      <c r="G38" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="H38" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="I38" s="3">
-        <v>0</v>
-      </c>
-      <c r="J38" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G38" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="H38" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="I38" s="1">
+        <v>0</v>
+      </c>
+      <c r="J38" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>156</v>
       </c>
@@ -2883,23 +3385,23 @@
       <c r="E39" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="F39" s="3">
+      <c r="F39" s="1">
         <v>7</v>
       </c>
-      <c r="G39" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="H39" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="I39" s="3">
-        <v>0</v>
-      </c>
-      <c r="J39" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G39" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="H39" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="I39" s="1">
+        <v>0</v>
+      </c>
+      <c r="J39" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>160</v>
       </c>
@@ -2916,23 +3418,23 @@
       <c r="E40" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="F40" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="G40" s="3">
-        <v>0</v>
-      </c>
-      <c r="H40" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="I40" s="3">
-        <v>0</v>
-      </c>
-      <c r="J40" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F40" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0</v>
+      </c>
+      <c r="H40" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="I40" s="1">
+        <v>0</v>
+      </c>
+      <c r="J40" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>164</v>
       </c>
@@ -2949,23 +3451,23 @@
       <c r="E41" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="F41" s="3">
+      <c r="F41" s="1">
         <v>5.5</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
-      <c r="H41" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
-      <c r="J41" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G41" s="1">
+        <v>0</v>
+      </c>
+      <c r="H41" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="I41" s="1">
+        <v>0</v>
+      </c>
+      <c r="J41" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>168</v>
       </c>
@@ -2982,23 +3484,23 @@
       <c r="E42" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F42" s="1">
         <v>7</v>
       </c>
-      <c r="G42" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="H42" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G42" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="H42" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="I42" s="1">
+        <v>0</v>
+      </c>
+      <c r="J42" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>172</v>
       </c>
@@ -3015,23 +3517,23 @@
       <c r="E43" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="F43" s="3">
+      <c r="F43" s="1">
         <v>4</v>
       </c>
-      <c r="G43" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="H43" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G43" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="H43" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="I43" s="1">
+        <v>0</v>
+      </c>
+      <c r="J43" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>176</v>
       </c>
@@ -3048,23 +3550,23 @@
       <c r="E44" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F44" s="3">
+      <c r="F44" s="1">
         <v>4</v>
       </c>
-      <c r="G44" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="H44" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G44" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="H44" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="I44" s="1">
+        <v>0</v>
+      </c>
+      <c r="J44" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>179</v>
       </c>
@@ -3081,23 +3583,23 @@
       <c r="E45" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="F45" s="3">
+      <c r="F45" s="1">
         <v>7</v>
       </c>
-      <c r="G45" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="H45" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
-      <c r="J45" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G45" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="H45" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="I45" s="1">
+        <v>0</v>
+      </c>
+      <c r="J45" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>183</v>
       </c>
@@ -3114,23 +3616,23 @@
       <c r="E46" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="F46" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="G46" s="3">
-        <v>0</v>
-      </c>
-      <c r="H46" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="I46" s="3">
-        <v>0</v>
-      </c>
-      <c r="J46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F46" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="G46" s="1">
+        <v>0</v>
+      </c>
+      <c r="H46" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="I46" s="1">
+        <v>0</v>
+      </c>
+      <c r="J46" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>187</v>
       </c>
@@ -3147,23 +3649,23 @@
       <c r="E47" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F47" s="1">
         <v>4</v>
       </c>
-      <c r="G47" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="H47" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G47" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="H47" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="I47" s="1">
+        <v>0</v>
+      </c>
+      <c r="J47" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>191</v>
       </c>
@@ -3180,23 +3682,23 @@
       <c r="E48" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="F48" s="3">
+      <c r="F48" s="1">
         <v>4</v>
       </c>
-      <c r="G48" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="H48" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
-      <c r="J48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G48" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="H48" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="I48" s="1">
+        <v>0</v>
+      </c>
+      <c r="J48" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>195</v>
       </c>
@@ -3213,23 +3715,23 @@
       <c r="E49" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="F49" s="3">
+      <c r="F49" s="1">
         <v>7</v>
       </c>
-      <c r="G49" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="H49" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="I49" s="3">
-        <v>3</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G49" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="H49" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="I49" s="1">
+        <v>3</v>
+      </c>
+      <c r="J49" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>199</v>
       </c>
@@ -3246,23 +3748,23 @@
       <c r="E50" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="F50" s="3">
+      <c r="F50" s="1">
         <v>4</v>
       </c>
-      <c r="G50" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="H50" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="I50" s="3">
-        <v>0</v>
-      </c>
-      <c r="J50" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G50" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="H50" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="I50" s="1">
+        <v>0</v>
+      </c>
+      <c r="J50" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>203</v>
       </c>
@@ -3279,23 +3781,23 @@
       <c r="E51" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="F51" s="3">
+      <c r="F51" s="1">
         <v>4</v>
       </c>
-      <c r="G51" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="H51" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="I51" s="3">
+      <c r="G51" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="H51" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="I51" s="1">
         <v>0</v>
       </c>
       <c r="J51" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>207</v>
       </c>
@@ -3312,23 +3814,23 @@
       <c r="E52" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="F52" s="3">
+      <c r="F52" s="1">
         <v>4</v>
       </c>
-      <c r="G52" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="H52" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G52" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="H52" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="I52" s="1">
+        <v>0</v>
+      </c>
+      <c r="J52" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>211</v>
       </c>
@@ -3345,23 +3847,23 @@
       <c r="E53" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="F53" s="3">
+      <c r="F53" s="1">
         <v>4</v>
       </c>
-      <c r="G53" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="H53" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="I53" s="3">
-        <v>0</v>
-      </c>
-      <c r="J53" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G53" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="H53" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="I53" s="1">
+        <v>0</v>
+      </c>
+      <c r="J53" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>215</v>
       </c>
@@ -3378,23 +3880,23 @@
       <c r="E54" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="F54" s="3">
+      <c r="F54" s="1">
         <v>4</v>
       </c>
-      <c r="G54" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="H54" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="I54" s="3">
-        <v>0</v>
-      </c>
-      <c r="J54" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G54" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="H54" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="I54" s="1">
+        <v>0</v>
+      </c>
+      <c r="J54" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>219</v>
       </c>
@@ -3411,23 +3913,23 @@
       <c r="E55" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="F55" s="3">
+      <c r="F55" s="1">
         <v>4</v>
       </c>
-      <c r="G55" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="H55" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="I55" s="3">
-        <v>0</v>
-      </c>
-      <c r="J55" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G55" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="H55" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="I55" s="1">
+        <v>0</v>
+      </c>
+      <c r="J55" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>223</v>
       </c>
@@ -3444,23 +3946,23 @@
       <c r="E56" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="F56" s="3">
+      <c r="F56" s="1">
         <v>7</v>
       </c>
-      <c r="G56" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="H56" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="I56" s="3">
-        <v>0</v>
-      </c>
-      <c r="J56" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G56" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="H56" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="I56" s="1">
+        <v>0</v>
+      </c>
+      <c r="J56" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>227</v>
       </c>
@@ -3477,23 +3979,23 @@
       <c r="E57" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="F57" s="3">
+      <c r="F57" s="1">
         <v>4</v>
       </c>
-      <c r="G57" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="H57" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="I57" s="3">
-        <v>0</v>
-      </c>
-      <c r="J57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G57" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="H57" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="I57" s="1">
+        <v>0</v>
+      </c>
+      <c r="J57" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>231</v>
       </c>
@@ -3510,23 +4012,23 @@
       <c r="E58" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="F58" s="3">
+      <c r="F58" s="1">
         <v>4</v>
       </c>
-      <c r="G58" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="H58" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G58" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="H58" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="I58" s="1">
+        <v>0</v>
+      </c>
+      <c r="J58" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>235</v>
       </c>
@@ -3543,23 +4045,23 @@
       <c r="E59" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="F59" s="3">
+      <c r="F59" s="1">
         <v>4</v>
       </c>
-      <c r="G59" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="H59" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="I59" s="3">
-        <v>0</v>
-      </c>
-      <c r="J59" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G59" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="H59" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="I59" s="1">
+        <v>0</v>
+      </c>
+      <c r="J59" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>239</v>
       </c>
@@ -3576,23 +4078,23 @@
       <c r="E60" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="F60" s="3">
+      <c r="F60" s="1">
         <v>5.5</v>
       </c>
-      <c r="G60" s="3">
-        <v>0</v>
-      </c>
-      <c r="H60" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="I60" s="3">
-        <v>3</v>
-      </c>
-      <c r="J60" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G60" s="1">
+        <v>0</v>
+      </c>
+      <c r="H60" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="I60" s="1">
+        <v>3</v>
+      </c>
+      <c r="J60" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>242</v>
       </c>
@@ -3609,23 +4111,23 @@
       <c r="E61" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="F61" s="3">
+      <c r="F61" s="1">
         <v>7</v>
       </c>
-      <c r="G61" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="H61" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
-      <c r="J61" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G61" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="H61" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="I61" s="1">
+        <v>0</v>
+      </c>
+      <c r="J61" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>245</v>
       </c>
@@ -3642,23 +4144,23 @@
       <c r="E62" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="F62" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F62" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="G62" s="1">
+        <v>0</v>
+      </c>
+      <c r="H62" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="I62" s="1">
+        <v>0</v>
+      </c>
+      <c r="J62" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>249</v>
       </c>
@@ -3675,13 +4177,13 @@
       <c r="E63" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="F63" s="3">
+      <c r="F63" s="1">
         <v>4</v>
       </c>
-      <c r="G63" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="H63" s="3">
+      <c r="G63" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="H63" s="1">
         <v>2.5</v>
       </c>
       <c r="I63" s="1" t="s">
@@ -3691,7 +4193,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>253</v>
       </c>
@@ -3708,23 +4210,23 @@
       <c r="E64" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="F64" s="3">
+      <c r="F64" s="1">
         <v>4</v>
       </c>
-      <c r="G64" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="H64" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="I64" s="3">
-        <v>0</v>
-      </c>
-      <c r="J64" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G64" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="H64" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="I64" s="1">
+        <v>0</v>
+      </c>
+      <c r="J64" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>257</v>
       </c>
@@ -3741,23 +4243,23 @@
       <c r="E65" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="F65" s="3">
+      <c r="F65" s="1">
         <v>10</v>
       </c>
-      <c r="G65" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="H65" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="I65" s="3">
-        <v>3</v>
-      </c>
-      <c r="J65" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G65" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="H65" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="I65" s="1">
+        <v>3</v>
+      </c>
+      <c r="J65" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>261</v>
       </c>
@@ -3774,23 +4276,23 @@
       <c r="E66" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="F66" s="3">
+      <c r="F66" s="1">
         <v>4</v>
       </c>
-      <c r="G66" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="H66" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="I66" s="3">
+      <c r="G66" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="H66" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="I66" s="1">
         <v>0</v>
       </c>
       <c r="J66" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>265</v>
       </c>
@@ -3807,23 +4309,23 @@
       <c r="E67" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="F67" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="G67" s="3">
-        <v>0</v>
-      </c>
-      <c r="H67" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="I67" s="3">
-        <v>0</v>
-      </c>
-      <c r="J67" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F67" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="G67" s="1">
+        <v>0</v>
+      </c>
+      <c r="H67" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="I67" s="1">
+        <v>0</v>
+      </c>
+      <c r="J67" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>269</v>
       </c>
@@ -3840,23 +4342,23 @@
       <c r="E68" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="F68" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="G68" s="3">
-        <v>0</v>
-      </c>
-      <c r="H68" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="I68" s="3">
-        <v>0</v>
-      </c>
-      <c r="J68" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F68" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="G68" s="1">
+        <v>0</v>
+      </c>
+      <c r="H68" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="I68" s="1">
+        <v>0</v>
+      </c>
+      <c r="J68" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>272</v>
       </c>
@@ -3873,23 +4375,23 @@
       <c r="E69" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="F69" s="3">
+      <c r="F69" s="1">
         <v>7</v>
       </c>
-      <c r="G69" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="H69" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="I69" s="3">
-        <v>0</v>
-      </c>
-      <c r="J69" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G69" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="H69" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="I69" s="1">
+        <v>0</v>
+      </c>
+      <c r="J69" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>276</v>
       </c>
@@ -3906,23 +4408,23 @@
       <c r="E70" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="F70" s="3">
+      <c r="F70" s="1">
         <v>4</v>
       </c>
-      <c r="G70" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="H70" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="I70" s="3">
-        <v>0</v>
-      </c>
-      <c r="J70" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G70" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="H70" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="I70" s="1">
+        <v>0</v>
+      </c>
+      <c r="J70" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>279</v>
       </c>
@@ -3939,23 +4441,23 @@
       <c r="E71" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="F71" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="G71" s="3">
-        <v>0</v>
-      </c>
-      <c r="H71" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="I71" s="3">
-        <v>0</v>
-      </c>
-      <c r="J71" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F71" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="G71" s="1">
+        <v>0</v>
+      </c>
+      <c r="H71" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="I71" s="1">
+        <v>0</v>
+      </c>
+      <c r="J71" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>282</v>
       </c>
@@ -3972,23 +4474,23 @@
       <c r="E72" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="F72" s="3">
+      <c r="F72" s="1">
         <v>7</v>
       </c>
-      <c r="G72" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="H72" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="I72" s="3">
-        <v>0</v>
-      </c>
-      <c r="J72" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G72" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="H72" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="I72" s="1">
+        <v>0</v>
+      </c>
+      <c r="J72" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>61</v>
       </c>
@@ -4005,23 +4507,23 @@
       <c r="E73" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="F73" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="G73" s="3">
-        <v>0</v>
-      </c>
-      <c r="H73" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="I73" s="3">
-        <v>0</v>
-      </c>
-      <c r="J73" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F73" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="G73" s="1">
+        <v>0</v>
+      </c>
+      <c r="H73" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="I73" s="1">
+        <v>0</v>
+      </c>
+      <c r="J73" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>288</v>
       </c>
@@ -4038,23 +4540,23 @@
       <c r="E74" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="F74" s="3">
+      <c r="F74" s="1">
         <v>4</v>
       </c>
-      <c r="G74" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="H74" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="I74" s="3">
-        <v>0</v>
-      </c>
-      <c r="J74" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G74" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="H74" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="I74" s="1">
+        <v>0</v>
+      </c>
+      <c r="J74" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>291</v>
       </c>
@@ -4071,23 +4573,23 @@
       <c r="E75" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="F75" s="3">
+      <c r="F75" s="1">
         <v>4</v>
       </c>
-      <c r="G75" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="H75" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="I75" s="3">
-        <v>0</v>
-      </c>
-      <c r="J75" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G75" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="H75" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="I75" s="1">
+        <v>0</v>
+      </c>
+      <c r="J75" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>294</v>
       </c>
@@ -4104,23 +4606,23 @@
       <c r="E76" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="F76" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="G76" s="3">
-        <v>0</v>
-      </c>
-      <c r="H76" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="I76" s="3">
-        <v>0</v>
-      </c>
-      <c r="J76" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F76" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="G76" s="1">
+        <v>0</v>
+      </c>
+      <c r="H76" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="I76" s="1">
+        <v>0</v>
+      </c>
+      <c r="J76" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>298</v>
       </c>
@@ -4137,23 +4639,23 @@
       <c r="E77" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="F77" s="3">
+      <c r="F77" s="1">
         <v>4</v>
       </c>
-      <c r="G77" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="H77" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="I77" s="3">
-        <v>0</v>
-      </c>
-      <c r="J77" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G77" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="H77" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="I77" s="1">
+        <v>0</v>
+      </c>
+      <c r="J77" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>302</v>
       </c>
@@ -4170,23 +4672,23 @@
       <c r="E78" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="F78" s="3">
+      <c r="F78" s="1">
         <v>4</v>
       </c>
-      <c r="G78" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="H78" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="I78" s="3">
-        <v>0</v>
-      </c>
-      <c r="J78" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G78" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="H78" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="I78" s="1">
+        <v>0</v>
+      </c>
+      <c r="J78" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>306</v>
       </c>
@@ -4203,23 +4705,23 @@
       <c r="E79" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="F79" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="G79" s="3">
-        <v>0</v>
-      </c>
-      <c r="H79" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="I79" s="3">
-        <v>0</v>
-      </c>
-      <c r="J79" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F79" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="G79" s="1">
+        <v>0</v>
+      </c>
+      <c r="H79" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="I79" s="1">
+        <v>0</v>
+      </c>
+      <c r="J79" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>310</v>
       </c>
@@ -4236,23 +4738,23 @@
       <c r="E80" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="F80" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="G80" s="3">
-        <v>0</v>
-      </c>
-      <c r="H80" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="I80" s="3">
-        <v>0</v>
-      </c>
-      <c r="J80" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F80" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="G80" s="1">
+        <v>0</v>
+      </c>
+      <c r="H80" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="I80" s="1">
+        <v>0</v>
+      </c>
+      <c r="J80" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>314</v>
       </c>
@@ -4269,23 +4771,23 @@
       <c r="E81" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="F81" s="3">
+      <c r="F81" s="1">
         <v>4</v>
       </c>
-      <c r="G81" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="H81" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G81" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="H81" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="I81" s="1">
+        <v>0</v>
+      </c>
+      <c r="J81" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>317</v>
       </c>
@@ -4302,23 +4804,23 @@
       <c r="E82" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="F82" s="3">
+      <c r="F82" s="1">
         <v>4</v>
       </c>
-      <c r="G82" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="H82" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="I82" s="3">
-        <v>0</v>
-      </c>
-      <c r="J82" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G82" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="H82" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="I82" s="1">
+        <v>0</v>
+      </c>
+      <c r="J82" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>320</v>
       </c>
@@ -4335,23 +4837,23 @@
       <c r="E83" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="F83" s="3">
+      <c r="F83" s="1">
         <v>10</v>
       </c>
-      <c r="G83" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="H83" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="I83" s="3">
-        <v>3</v>
-      </c>
-      <c r="J83" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G83" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="H83" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="I83" s="1">
+        <v>3</v>
+      </c>
+      <c r="J83" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>324</v>
       </c>
@@ -4368,23 +4870,23 @@
       <c r="E84" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="F84" s="3">
+      <c r="F84" s="1">
         <v>4</v>
       </c>
-      <c r="G84" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="H84" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="I84" s="3">
-        <v>0</v>
-      </c>
-      <c r="J84" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G84" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="H84" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="I84" s="1">
+        <v>0</v>
+      </c>
+      <c r="J84" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>328</v>
       </c>
@@ -4401,23 +4903,23 @@
       <c r="E85" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="F85" s="3">
+      <c r="F85" s="1">
         <v>4</v>
       </c>
-      <c r="G85" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="H85" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="I85" s="3">
-        <v>0</v>
-      </c>
-      <c r="J85" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G85" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="H85" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="I85" s="1">
+        <v>0</v>
+      </c>
+      <c r="J85" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>331</v>
       </c>
@@ -4434,23 +4936,23 @@
       <c r="E86" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="F86" s="3">
+      <c r="F86" s="1">
         <v>7</v>
       </c>
-      <c r="G86" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="H86" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="I86" s="3">
-        <v>3</v>
-      </c>
-      <c r="J86" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G86" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="H86" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="I86" s="1">
+        <v>3</v>
+      </c>
+      <c r="J86" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>334</v>
       </c>
@@ -4467,23 +4969,23 @@
       <c r="E87" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="F87" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="G87" s="3">
-        <v>0</v>
-      </c>
-      <c r="H87" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="I87" s="3">
-        <v>0</v>
-      </c>
-      <c r="J87" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F87" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="G87" s="1">
+        <v>0</v>
+      </c>
+      <c r="H87" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="I87" s="1">
+        <v>0</v>
+      </c>
+      <c r="J87" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>338</v>
       </c>
@@ -4500,23 +5002,23 @@
       <c r="E88" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="F88" s="3">
+      <c r="F88" s="1">
         <v>4</v>
       </c>
-      <c r="G88" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="H88" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="I88" s="3">
-        <v>0</v>
-      </c>
-      <c r="J88" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G88" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="H88" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="I88" s="1">
+        <v>0</v>
+      </c>
+      <c r="J88" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>342</v>
       </c>
@@ -4533,13 +5035,13 @@
       <c r="E89" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="F89" s="3">
+      <c r="F89" s="1">
         <v>4</v>
       </c>
-      <c r="G89" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="H89" s="3">
+      <c r="G89" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="H89" s="1">
         <v>2.5</v>
       </c>
       <c r="I89" s="1" t="s">
@@ -4549,7 +5051,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>345</v>
       </c>
@@ -4566,23 +5068,23 @@
       <c r="E90" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="F90" s="3">
+      <c r="F90" s="1">
         <v>10</v>
       </c>
-      <c r="G90" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="H90" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="I90" s="3">
-        <v>3</v>
-      </c>
-      <c r="J90" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G90" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="H90" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="I90" s="1">
+        <v>3</v>
+      </c>
+      <c r="J90" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>348</v>
       </c>
@@ -4599,23 +5101,23 @@
       <c r="E91" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="F91" s="3">
+      <c r="F91" s="1">
         <v>4</v>
       </c>
-      <c r="G91" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="H91" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G91" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="H91" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="I91" s="1">
+        <v>0</v>
+      </c>
+      <c r="J91" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>352</v>
       </c>
@@ -4632,23 +5134,23 @@
       <c r="E92" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="F92" s="3">
+      <c r="F92" s="1">
         <v>4</v>
       </c>
-      <c r="G92" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="H92" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="I92" s="3">
-        <v>0</v>
-      </c>
-      <c r="J92" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G92" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="H92" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="I92" s="1">
+        <v>0</v>
+      </c>
+      <c r="J92" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>355</v>
       </c>
@@ -4665,23 +5167,23 @@
       <c r="E93" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="F93" s="3">
+      <c r="F93" s="1">
         <v>10</v>
       </c>
-      <c r="G93" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="H93" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="I93" s="3">
-        <v>3</v>
-      </c>
-      <c r="J93" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G93" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="H93" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="I93" s="1">
+        <v>3</v>
+      </c>
+      <c r="J93" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>359</v>
       </c>
@@ -4698,23 +5200,23 @@
       <c r="E94" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="F94" s="3">
+      <c r="F94" s="1">
         <v>7</v>
       </c>
-      <c r="G94" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="H94" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="I94" s="3">
-        <v>3</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G94" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="H94" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="I94" s="1">
+        <v>3</v>
+      </c>
+      <c r="J94" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>362</v>
       </c>
@@ -4731,23 +5233,23 @@
       <c r="E95" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="F95" s="3">
+      <c r="F95" s="1">
         <v>4</v>
       </c>
-      <c r="G95" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="H95" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="I95" s="3">
-        <v>0</v>
-      </c>
-      <c r="J95" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G95" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="H95" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="I95" s="1">
+        <v>0</v>
+      </c>
+      <c r="J95" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>219</v>
       </c>
@@ -4764,23 +5266,23 @@
       <c r="E96" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="F96" s="3">
+      <c r="F96" s="1">
         <v>7</v>
       </c>
-      <c r="G96" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="H96" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
-      <c r="J96" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G96" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="H96" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="I96" s="1">
+        <v>0</v>
+      </c>
+      <c r="J96" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>368</v>
       </c>
@@ -4797,13 +5299,13 @@
       <c r="E97" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="F97" s="3">
+      <c r="F97" s="1">
         <v>4</v>
       </c>
-      <c r="G97" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="H97" s="3">
+      <c r="G97" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="H97" s="1">
         <v>2.5</v>
       </c>
       <c r="I97" s="1" t="s">
@@ -4813,7 +5315,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="98" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>372</v>
       </c>
@@ -4830,23 +5332,23 @@
       <c r="E98" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="F98" s="3">
+      <c r="F98" s="1">
         <v>7</v>
       </c>
-      <c r="G98" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="H98" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="I98" s="3">
-        <v>0</v>
-      </c>
-      <c r="J98" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G98" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="H98" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="I98" s="1">
+        <v>0</v>
+      </c>
+      <c r="J98" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>376</v>
       </c>
@@ -4863,30 +5365,30 @@
       <c r="E99" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="F99" s="3">
+      <c r="F99" s="1">
         <v>10</v>
       </c>
-      <c r="G99" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="H99" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="I99" s="3">
-        <v>3</v>
-      </c>
-      <c r="J99" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G99" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="H99" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="I99" s="1">
+        <v>3</v>
+      </c>
+      <c r="J99" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>257</v>
       </c>
       <c r="B100" t="s">
         <v>381</v>
       </c>
-      <c r="C100" s="2" t="str">
+      <c r="C100" s="1" t="str">
         <f>A100&amp;B100</f>
         <v>DECULTOTAmelie</v>
       </c>
@@ -4902,7 +5404,7 @@
       <c r="G100">
         <v>1.5</v>
       </c>
-      <c r="H100" s="3">
+      <c r="H100" s="1">
         <v>2.5</v>
       </c>
       <c r="I100">
@@ -4912,14 +5414,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>383</v>
       </c>
       <c r="B101" t="s">
         <v>384</v>
       </c>
-      <c r="C101" s="2" t="str">
+      <c r="C101" s="1" t="str">
         <f t="shared" ref="C101:C103" si="2">A101&amp;B101</f>
         <v>MENASSACybele</v>
       </c>
@@ -4935,7 +5437,7 @@
       <c r="G101">
         <v>0</v>
       </c>
-      <c r="H101" s="3">
+      <c r="H101" s="1">
         <v>2.5</v>
       </c>
       <c r="I101">
@@ -4945,14 +5447,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>387</v>
       </c>
       <c r="B102" t="s">
         <v>388</v>
       </c>
-      <c r="C102" s="2" t="str">
+      <c r="C102" s="1" t="str">
         <f t="shared" si="2"/>
         <v>ESTIENNEAlienor</v>
       </c>
@@ -4968,7 +5470,7 @@
       <c r="G102">
         <v>1.5</v>
       </c>
-      <c r="H102" s="3">
+      <c r="H102" s="1">
         <v>2.5</v>
       </c>
       <c r="I102">
@@ -4978,14 +5480,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>391</v>
       </c>
       <c r="B103" t="s">
         <v>91</v>
       </c>
-      <c r="C103" s="2" t="str">
+      <c r="C103" s="1" t="str">
         <f t="shared" si="2"/>
         <v>IDELOTLouise</v>
       </c>
@@ -5001,7 +5503,7 @@
       <c r="G103">
         <v>1.5</v>
       </c>
-      <c r="H103" s="3">
+      <c r="H103" s="1">
         <v>2.5</v>
       </c>
       <c r="I103">
@@ -5009,6 +5511,2462 @@
       </c>
       <c r="J103">
         <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA4693AA-F571-3840-BDDB-1F105AC46288}">
+  <dimension ref="A1:J74"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="H77" sqref="H77"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>394</v>
+      </c>
+      <c r="B2" t="s">
+        <v>395</v>
+      </c>
+      <c r="C2" t="str">
+        <f>A2&amp;B2</f>
+        <v>GIBERTGarance</v>
+      </c>
+      <c r="D2" t="s">
+        <v>396</v>
+      </c>
+      <c r="E2" t="s">
+        <v>397</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C66" si="0">A3&amp;B3</f>
+        <v>JACQUESAlix</v>
+      </c>
+      <c r="D3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E3" t="s">
+        <v>398</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>399</v>
+      </c>
+      <c r="B4" t="s">
+        <v>356</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>AUBERTLucie</v>
+      </c>
+      <c r="D4" t="s">
+        <v>400</v>
+      </c>
+      <c r="E4" t="s">
+        <v>401</v>
+      </c>
+      <c r="F4">
+        <v>1.5</v>
+      </c>
+      <c r="G4">
+        <v>1.5</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>HAJJARTheodore</v>
+      </c>
+      <c r="D5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E5" t="s">
+        <v>402</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <v>1.5</v>
+      </c>
+      <c r="H5">
+        <v>2.5</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="J5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>403</v>
+      </c>
+      <c r="B6" t="s">
+        <v>404</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>OLIVIERCamille</v>
+      </c>
+      <c r="D6" t="s">
+        <v>405</v>
+      </c>
+      <c r="E6" t="s">
+        <v>406</v>
+      </c>
+      <c r="F6">
+        <v>4.5</v>
+      </c>
+      <c r="G6">
+        <v>1.5</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>407</v>
+      </c>
+      <c r="B7" t="s">
+        <v>349</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>MARCHANDCaroline</v>
+      </c>
+      <c r="D7" t="s">
+        <v>408</v>
+      </c>
+      <c r="E7" t="s">
+        <v>409</v>
+      </c>
+      <c r="F7">
+        <v>7</v>
+      </c>
+      <c r="G7">
+        <v>1.5</v>
+      </c>
+      <c r="H7">
+        <v>2.5</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>GAILLARDMaelle</v>
+      </c>
+      <c r="D8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E8" t="s">
+        <v>410</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>294</v>
+      </c>
+      <c r="B9" t="s">
+        <v>295</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>PETITPaul</v>
+      </c>
+      <c r="D9" t="s">
+        <v>296</v>
+      </c>
+      <c r="E9" t="s">
+        <v>411</v>
+      </c>
+      <c r="F9">
+        <v>1.5</v>
+      </c>
+      <c r="G9">
+        <v>1.5</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>412</v>
+      </c>
+      <c r="B10" t="s">
+        <v>413</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>LAURENTEliott</v>
+      </c>
+      <c r="D10" t="s">
+        <v>414</v>
+      </c>
+      <c r="E10" t="s">
+        <v>415</v>
+      </c>
+      <c r="F10">
+        <v>7</v>
+      </c>
+      <c r="G10">
+        <v>1.5</v>
+      </c>
+      <c r="H10">
+        <v>2.5</v>
+      </c>
+      <c r="I10">
+        <v>3</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>416</v>
+      </c>
+      <c r="B11" t="s">
+        <v>417</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>MARTINAbigael</v>
+      </c>
+      <c r="D11" t="s">
+        <v>418</v>
+      </c>
+      <c r="E11" t="s">
+        <v>419</v>
+      </c>
+      <c r="F11">
+        <v>7</v>
+      </c>
+      <c r="G11">
+        <v>1.5</v>
+      </c>
+      <c r="H11">
+        <v>2.5</v>
+      </c>
+      <c r="I11">
+        <v>3</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>420</v>
+      </c>
+      <c r="B12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>FRANCHAISEFlavie</v>
+      </c>
+      <c r="D12" t="s">
+        <v>421</v>
+      </c>
+      <c r="E12" t="s">
+        <v>422</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>423</v>
+      </c>
+      <c r="B13" t="s">
+        <v>143</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>FONDMaxime</v>
+      </c>
+      <c r="D13" t="s">
+        <v>424</v>
+      </c>
+      <c r="E13" t="s">
+        <v>425</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
+      </c>
+      <c r="G13">
+        <v>1.5</v>
+      </c>
+      <c r="H13">
+        <v>2.5</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>426</v>
+      </c>
+      <c r="B14" t="s">
+        <v>335</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v>THEETTENHeloise</v>
+      </c>
+      <c r="D14" t="s">
+        <v>427</v>
+      </c>
+      <c r="E14" t="s">
+        <v>428</v>
+      </c>
+      <c r="F14">
+        <v>4</v>
+      </c>
+      <c r="G14">
+        <v>1.5</v>
+      </c>
+      <c r="H14">
+        <v>2.5</v>
+      </c>
+      <c r="I14" t="s">
+        <v>81</v>
+      </c>
+      <c r="J14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v>MAGNIER DE MAISONNEUVEJeanne</v>
+      </c>
+      <c r="D15" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" t="s">
+        <v>429</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15" t="s">
+        <v>81</v>
+      </c>
+      <c r="H15" t="s">
+        <v>81</v>
+      </c>
+      <c r="I15" t="s">
+        <v>81</v>
+      </c>
+      <c r="J15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>430</v>
+      </c>
+      <c r="B16" t="s">
+        <v>431</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="0"/>
+        <v>CHOPINZelie</v>
+      </c>
+      <c r="D16" t="s">
+        <v>432</v>
+      </c>
+      <c r="E16" t="s">
+        <v>433</v>
+      </c>
+      <c r="F16">
+        <v>2.5</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>2.5</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>434</v>
+      </c>
+      <c r="B17" t="s">
+        <v>435</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="0"/>
+        <v>DUFOIXPerline</v>
+      </c>
+      <c r="D17" t="s">
+        <v>436</v>
+      </c>
+      <c r="E17" t="s">
+        <v>437</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>438</v>
+      </c>
+      <c r="B18" t="s">
+        <v>439</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="0"/>
+        <v>DUPUITAlban</v>
+      </c>
+      <c r="D18" t="s">
+        <v>440</v>
+      </c>
+      <c r="E18" t="s">
+        <v>441</v>
+      </c>
+      <c r="F18">
+        <v>10</v>
+      </c>
+      <c r="G18">
+        <v>1.5</v>
+      </c>
+      <c r="H18">
+        <v>2.5</v>
+      </c>
+      <c r="I18">
+        <v>3</v>
+      </c>
+      <c r="J18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>442</v>
+      </c>
+      <c r="B19" t="s">
+        <v>443</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="0"/>
+        <v>ZANG ATANGANAAnais</v>
+      </c>
+      <c r="D19" t="s">
+        <v>444</v>
+      </c>
+      <c r="E19" t="s">
+        <v>445</v>
+      </c>
+      <c r="F19">
+        <v>7</v>
+      </c>
+      <c r="G19">
+        <v>1.5</v>
+      </c>
+      <c r="H19">
+        <v>2.5</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>446</v>
+      </c>
+      <c r="B20" t="s">
+        <v>447</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="0"/>
+        <v>HARDYLouis</v>
+      </c>
+      <c r="D20" t="s">
+        <v>448</v>
+      </c>
+      <c r="E20" t="s">
+        <v>449</v>
+      </c>
+      <c r="F20">
+        <v>4.5</v>
+      </c>
+      <c r="G20">
+        <v>1.5</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>102</v>
+      </c>
+      <c r="B21" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="0"/>
+        <v>JOURDAINClothilde</v>
+      </c>
+      <c r="D21" t="s">
+        <v>104</v>
+      </c>
+      <c r="E21" t="s">
+        <v>450</v>
+      </c>
+      <c r="F21">
+        <v>4</v>
+      </c>
+      <c r="G21">
+        <v>1.5</v>
+      </c>
+      <c r="H21">
+        <v>2.5</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>362</v>
+      </c>
+      <c r="B22" t="s">
+        <v>339</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="0"/>
+        <v>MASSARTTitouan</v>
+      </c>
+      <c r="D22" t="s">
+        <v>363</v>
+      </c>
+      <c r="E22" t="s">
+        <v>451</v>
+      </c>
+      <c r="F22">
+        <v>10</v>
+      </c>
+      <c r="G22">
+        <v>1.5</v>
+      </c>
+      <c r="H22">
+        <v>2.5</v>
+      </c>
+      <c r="I22">
+        <v>3</v>
+      </c>
+      <c r="J22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>452</v>
+      </c>
+      <c r="B23" t="s">
+        <v>453</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="0"/>
+        <v>DJEDANEMNoe</v>
+      </c>
+      <c r="D23" t="s">
+        <v>454</v>
+      </c>
+      <c r="E23" t="s">
+        <v>455</v>
+      </c>
+      <c r="F23">
+        <v>10</v>
+      </c>
+      <c r="G23">
+        <v>1.5</v>
+      </c>
+      <c r="H23">
+        <v>2.5</v>
+      </c>
+      <c r="I23">
+        <v>3</v>
+      </c>
+      <c r="J23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>276</v>
+      </c>
+      <c r="B24" t="s">
+        <v>212</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="0"/>
+        <v>HEUSSEVictorien</v>
+      </c>
+      <c r="D24" t="s">
+        <v>277</v>
+      </c>
+      <c r="E24" t="s">
+        <v>456</v>
+      </c>
+      <c r="F24">
+        <v>1.5</v>
+      </c>
+      <c r="G24">
+        <v>1.5</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>457</v>
+      </c>
+      <c r="B25" t="s">
+        <v>458</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="0"/>
+        <v>GONONYoan</v>
+      </c>
+      <c r="D25" t="s">
+        <v>459</v>
+      </c>
+      <c r="E25" t="s">
+        <v>460</v>
+      </c>
+      <c r="F25">
+        <v>1.5</v>
+      </c>
+      <c r="G25">
+        <v>1.5</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" t="s">
+        <v>270</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="0"/>
+        <v>LEULLIETTERobin</v>
+      </c>
+      <c r="D26" t="s">
+        <v>286</v>
+      </c>
+      <c r="E26" t="s">
+        <v>287</v>
+      </c>
+      <c r="F26">
+        <v>1.5</v>
+      </c>
+      <c r="G26">
+        <v>1.5</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>461</v>
+      </c>
+      <c r="B27" t="s">
+        <v>462</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="0"/>
+        <v>LE CAMEloise</v>
+      </c>
+      <c r="D27" t="s">
+        <v>463</v>
+      </c>
+      <c r="E27" t="s">
+        <v>464</v>
+      </c>
+      <c r="F27">
+        <v>4.5</v>
+      </c>
+      <c r="G27">
+        <v>1.5</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>3</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>465</v>
+      </c>
+      <c r="B28" t="s">
+        <v>466</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="0"/>
+        <v>LAMBERTMarion</v>
+      </c>
+      <c r="D28" t="s">
+        <v>467</v>
+      </c>
+      <c r="E28" t="s">
+        <v>468</v>
+      </c>
+      <c r="F28">
+        <v>2.5</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>2.5</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>94</v>
+      </c>
+      <c r="B29" t="s">
+        <v>95</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="0"/>
+        <v>DELAGNEAUAbygaelle</v>
+      </c>
+      <c r="D29" t="s">
+        <v>96</v>
+      </c>
+      <c r="E29" t="s">
+        <v>129</v>
+      </c>
+      <c r="F29">
+        <v>2.5</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>2.5</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="0"/>
+        <v>LEULLIETTELeonard</v>
+      </c>
+      <c r="D30" t="s">
+        <v>63</v>
+      </c>
+      <c r="E30" t="s">
+        <v>129</v>
+      </c>
+      <c r="F30">
+        <v>4</v>
+      </c>
+      <c r="G30">
+        <v>1.5</v>
+      </c>
+      <c r="H30">
+        <v>2.5</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>469</v>
+      </c>
+      <c r="B31" t="s">
+        <v>470</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="0"/>
+        <v>LESAINGConstance</v>
+      </c>
+      <c r="D31" t="s">
+        <v>471</v>
+      </c>
+      <c r="E31" t="s">
+        <v>472</v>
+      </c>
+      <c r="F31">
+        <v>1.5</v>
+      </c>
+      <c r="G31">
+        <v>1.5</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>473</v>
+      </c>
+      <c r="B32" t="s">
+        <v>474</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" si="0"/>
+        <v>BRACQMargot</v>
+      </c>
+      <c r="D32" t="s">
+        <v>475</v>
+      </c>
+      <c r="E32" t="s">
+        <v>476</v>
+      </c>
+      <c r="F32">
+        <v>7.5</v>
+      </c>
+      <c r="G32">
+        <v>1.5</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>3</v>
+      </c>
+      <c r="J32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>146</v>
+      </c>
+      <c r="B33" t="s">
+        <v>147</v>
+      </c>
+      <c r="C33" t="str">
+        <f t="shared" si="0"/>
+        <v>DUBOISJuliette</v>
+      </c>
+      <c r="D33" t="s">
+        <v>148</v>
+      </c>
+      <c r="E33" t="s">
+        <v>477</v>
+      </c>
+      <c r="F33">
+        <v>1.5</v>
+      </c>
+      <c r="G33">
+        <v>1.5</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>187</v>
+      </c>
+      <c r="B34" t="s">
+        <v>188</v>
+      </c>
+      <c r="C34" t="str">
+        <f t="shared" si="0"/>
+        <v>WROLYK-LHERMITTEHugo</v>
+      </c>
+      <c r="D34" t="s">
+        <v>189</v>
+      </c>
+      <c r="E34" t="s">
+        <v>478</v>
+      </c>
+      <c r="F34">
+        <v>7</v>
+      </c>
+      <c r="G34">
+        <v>1.5</v>
+      </c>
+      <c r="H34">
+        <v>2.5</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>479</v>
+      </c>
+      <c r="B35" t="s">
+        <v>480</v>
+      </c>
+      <c r="C35" t="str">
+        <f t="shared" si="0"/>
+        <v>PLATEAUCorentin</v>
+      </c>
+      <c r="D35" t="s">
+        <v>481</v>
+      </c>
+      <c r="E35" t="s">
+        <v>482</v>
+      </c>
+      <c r="F35">
+        <v>4</v>
+      </c>
+      <c r="G35">
+        <v>1.5</v>
+      </c>
+      <c r="H35">
+        <v>2.5</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>172</v>
+      </c>
+      <c r="B36" t="s">
+        <v>173</v>
+      </c>
+      <c r="C36" t="str">
+        <f t="shared" si="0"/>
+        <v>PILLETBlandine</v>
+      </c>
+      <c r="D36" t="s">
+        <v>174</v>
+      </c>
+      <c r="E36" t="s">
+        <v>230</v>
+      </c>
+      <c r="F36">
+        <v>7</v>
+      </c>
+      <c r="G36">
+        <v>1.5</v>
+      </c>
+      <c r="H36">
+        <v>2.5</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>138</v>
+      </c>
+      <c r="B37" t="s">
+        <v>139</v>
+      </c>
+      <c r="C37" t="str">
+        <f t="shared" si="0"/>
+        <v>COUTTENIERAurore</v>
+      </c>
+      <c r="D37" t="s">
+        <v>140</v>
+      </c>
+      <c r="E37" t="s">
+        <v>483</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37" t="s">
+        <v>81</v>
+      </c>
+      <c r="H37" t="s">
+        <v>81</v>
+      </c>
+      <c r="I37" t="s">
+        <v>81</v>
+      </c>
+      <c r="J37" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>195</v>
+      </c>
+      <c r="B38" t="s">
+        <v>196</v>
+      </c>
+      <c r="C38" t="str">
+        <f t="shared" si="0"/>
+        <v>TAHROUCHHind</v>
+      </c>
+      <c r="D38" t="s">
+        <v>197</v>
+      </c>
+      <c r="E38" t="s">
+        <v>484</v>
+      </c>
+      <c r="F38">
+        <v>1.5</v>
+      </c>
+      <c r="G38">
+        <v>1.5</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>114</v>
+      </c>
+      <c r="B39" t="s">
+        <v>115</v>
+      </c>
+      <c r="C39" t="str">
+        <f t="shared" si="0"/>
+        <v>GENTIENFlavie</v>
+      </c>
+      <c r="D39" t="s">
+        <v>116</v>
+      </c>
+      <c r="E39" t="s">
+        <v>485</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>486</v>
+      </c>
+      <c r="B40" t="s">
+        <v>200</v>
+      </c>
+      <c r="C40" t="str">
+        <f t="shared" si="0"/>
+        <v>DUBOTVictor</v>
+      </c>
+      <c r="D40" t="s">
+        <v>487</v>
+      </c>
+      <c r="E40" t="s">
+        <v>488</v>
+      </c>
+      <c r="F40">
+        <v>3</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>489</v>
+      </c>
+      <c r="B41" t="s">
+        <v>490</v>
+      </c>
+      <c r="C41" t="str">
+        <f t="shared" si="0"/>
+        <v>BARBIEREliot</v>
+      </c>
+      <c r="D41" t="s">
+        <v>491</v>
+      </c>
+      <c r="E41" t="s">
+        <v>492</v>
+      </c>
+      <c r="F41">
+        <v>4.5</v>
+      </c>
+      <c r="G41">
+        <v>1.5</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>493</v>
+      </c>
+      <c r="B42" t="s">
+        <v>494</v>
+      </c>
+      <c r="C42" t="str">
+        <f t="shared" si="0"/>
+        <v>TROYJosephine</v>
+      </c>
+      <c r="D42" t="s">
+        <v>495</v>
+      </c>
+      <c r="E42" t="s">
+        <v>496</v>
+      </c>
+      <c r="F42">
+        <v>1.5</v>
+      </c>
+      <c r="G42">
+        <v>1.5</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>497</v>
+      </c>
+      <c r="B43" t="s">
+        <v>200</v>
+      </c>
+      <c r="C43" t="str">
+        <f t="shared" si="0"/>
+        <v>DEPARISVictor</v>
+      </c>
+      <c r="D43" t="s">
+        <v>498</v>
+      </c>
+      <c r="E43" t="s">
+        <v>499</v>
+      </c>
+      <c r="F43">
+        <v>1.5</v>
+      </c>
+      <c r="G43">
+        <v>1.5</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>500</v>
+      </c>
+      <c r="B44" t="s">
+        <v>501</v>
+      </c>
+      <c r="C44" t="str">
+        <f t="shared" si="0"/>
+        <v>LOISEAU CLERFAYTSMaxence</v>
+      </c>
+      <c r="D44" t="s">
+        <v>502</v>
+      </c>
+      <c r="E44" t="s">
+        <v>503</v>
+      </c>
+      <c r="F44">
+        <v>2.5</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>2.5</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>504</v>
+      </c>
+      <c r="B45" t="s">
+        <v>295</v>
+      </c>
+      <c r="C45" t="str">
+        <f t="shared" si="0"/>
+        <v>LEROUXPaul</v>
+      </c>
+      <c r="D45" t="s">
+        <v>505</v>
+      </c>
+      <c r="E45" t="s">
+        <v>506</v>
+      </c>
+      <c r="F45">
+        <v>1.5</v>
+      </c>
+      <c r="G45">
+        <v>1.5</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>507</v>
+      </c>
+      <c r="B46" t="s">
+        <v>508</v>
+      </c>
+      <c r="C46" t="str">
+        <f t="shared" si="0"/>
+        <v>VALENTINInes</v>
+      </c>
+      <c r="D46" t="s">
+        <v>509</v>
+      </c>
+      <c r="E46" t="s">
+        <v>89</v>
+      </c>
+      <c r="F46">
+        <v>4.5</v>
+      </c>
+      <c r="G46">
+        <v>1.5</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>310</v>
+      </c>
+      <c r="B47" t="s">
+        <v>311</v>
+      </c>
+      <c r="C47" t="str">
+        <f t="shared" si="0"/>
+        <v>THIREEmeline</v>
+      </c>
+      <c r="D47" t="s">
+        <v>312</v>
+      </c>
+      <c r="E47" t="s">
+        <v>510</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>511</v>
+      </c>
+      <c r="B48" t="s">
+        <v>303</v>
+      </c>
+      <c r="C48" t="str">
+        <f t="shared" si="0"/>
+        <v>DUDORETJules</v>
+      </c>
+      <c r="D48" t="s">
+        <v>512</v>
+      </c>
+      <c r="E48" t="s">
+        <v>347</v>
+      </c>
+      <c r="F48">
+        <v>4.5</v>
+      </c>
+      <c r="G48">
+        <v>1.5</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>298</v>
+      </c>
+      <c r="B49" t="s">
+        <v>299</v>
+      </c>
+      <c r="C49" t="str">
+        <f t="shared" si="0"/>
+        <v>COLOMBSolane</v>
+      </c>
+      <c r="D49" t="s">
+        <v>300</v>
+      </c>
+      <c r="E49" t="s">
+        <v>513</v>
+      </c>
+      <c r="F49">
+        <v>4.5</v>
+      </c>
+      <c r="G49">
+        <v>1.5</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>291</v>
+      </c>
+      <c r="B50" t="s">
+        <v>177</v>
+      </c>
+      <c r="C50" t="str">
+        <f t="shared" si="0"/>
+        <v>MARANTAlix</v>
+      </c>
+      <c r="D50" t="s">
+        <v>292</v>
+      </c>
+      <c r="E50" t="s">
+        <v>514</v>
+      </c>
+      <c r="F50">
+        <v>4.5</v>
+      </c>
+      <c r="G50">
+        <v>1.5</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>261</v>
+      </c>
+      <c r="B51" t="s">
+        <v>262</v>
+      </c>
+      <c r="C51" t="str">
+        <f t="shared" si="0"/>
+        <v>MERCIERMax</v>
+      </c>
+      <c r="D51" t="s">
+        <v>263</v>
+      </c>
+      <c r="E51" t="s">
+        <v>515</v>
+      </c>
+      <c r="F51">
+        <v>7</v>
+      </c>
+      <c r="G51">
+        <v>1.5</v>
+      </c>
+      <c r="H51">
+        <v>2.5</v>
+      </c>
+      <c r="I51">
+        <v>3</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>516</v>
+      </c>
+      <c r="B52" t="s">
+        <v>42</v>
+      </c>
+      <c r="C52" t="str">
+        <f t="shared" si="0"/>
+        <v>RIBAULTCharlotte</v>
+      </c>
+      <c r="D52" t="s">
+        <v>517</v>
+      </c>
+      <c r="E52" t="s">
+        <v>518</v>
+      </c>
+      <c r="F52">
+        <v>2.5</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>2.5</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>13</v>
+      </c>
+      <c r="B53" t="s">
+        <v>14</v>
+      </c>
+      <c r="C53" t="str">
+        <f t="shared" si="0"/>
+        <v>DE LESQUEN DU PLESSIS CASSOAmaury</v>
+      </c>
+      <c r="D53" t="s">
+        <v>15</v>
+      </c>
+      <c r="E53" t="s">
+        <v>415</v>
+      </c>
+      <c r="F53">
+        <v>6</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>3</v>
+      </c>
+      <c r="J53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>41</v>
+      </c>
+      <c r="B54" t="s">
+        <v>42</v>
+      </c>
+      <c r="C54" t="str">
+        <f t="shared" si="0"/>
+        <v>VAVASSEURCharlotte</v>
+      </c>
+      <c r="D54" t="s">
+        <v>43</v>
+      </c>
+      <c r="E54" t="s">
+        <v>52</v>
+      </c>
+      <c r="F54">
+        <v>4</v>
+      </c>
+      <c r="G54">
+        <v>1.5</v>
+      </c>
+      <c r="H54">
+        <v>2.5</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>183</v>
+      </c>
+      <c r="B55" t="s">
+        <v>184</v>
+      </c>
+      <c r="C55" t="str">
+        <f t="shared" si="0"/>
+        <v>PICAULTGregoire</v>
+      </c>
+      <c r="D55" t="s">
+        <v>185</v>
+      </c>
+      <c r="E55" t="s">
+        <v>519</v>
+      </c>
+      <c r="F55">
+        <v>1.5</v>
+      </c>
+      <c r="G55">
+        <v>1.5</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>520</v>
+      </c>
+      <c r="B56" t="s">
+        <v>521</v>
+      </c>
+      <c r="C56" t="str">
+        <f t="shared" si="0"/>
+        <v>ZENAIDIAlyssa</v>
+      </c>
+      <c r="D56" t="s">
+        <v>522</v>
+      </c>
+      <c r="E56" t="s">
+        <v>523</v>
+      </c>
+      <c r="F56">
+        <v>3</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>3</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>253</v>
+      </c>
+      <c r="B57" t="s">
+        <v>254</v>
+      </c>
+      <c r="C57" t="str">
+        <f t="shared" si="0"/>
+        <v>PELEFrancois</v>
+      </c>
+      <c r="D57" t="s">
+        <v>255</v>
+      </c>
+      <c r="E57" t="s">
+        <v>524</v>
+      </c>
+      <c r="F57">
+        <v>4.5</v>
+      </c>
+      <c r="G57">
+        <v>1.5</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>525</v>
+      </c>
+      <c r="B58" t="s">
+        <v>332</v>
+      </c>
+      <c r="C58" t="str">
+        <f t="shared" si="0"/>
+        <v>SEMBLATMarie</v>
+      </c>
+      <c r="D58" t="s">
+        <v>526</v>
+      </c>
+      <c r="E58" t="s">
+        <v>527</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>191</v>
+      </c>
+      <c r="B59" t="s">
+        <v>192</v>
+      </c>
+      <c r="C59" t="str">
+        <f t="shared" si="0"/>
+        <v>BRUCHETMathilde</v>
+      </c>
+      <c r="D59" t="s">
+        <v>193</v>
+      </c>
+      <c r="E59" t="s">
+        <v>528</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59" t="s">
+        <v>81</v>
+      </c>
+      <c r="H59" t="s">
+        <v>81</v>
+      </c>
+      <c r="I59" t="s">
+        <v>81</v>
+      </c>
+      <c r="J59" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>529</v>
+      </c>
+      <c r="B60" t="s">
+        <v>530</v>
+      </c>
+      <c r="C60" t="str">
+        <f t="shared" si="0"/>
+        <v>ANSARTJulie</v>
+      </c>
+      <c r="D60" t="s">
+        <v>531</v>
+      </c>
+      <c r="E60" t="s">
+        <v>532</v>
+      </c>
+      <c r="F60">
+        <v>1.5</v>
+      </c>
+      <c r="G60">
+        <v>1.5</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>533</v>
+      </c>
+      <c r="B61" t="s">
+        <v>462</v>
+      </c>
+      <c r="C61" t="str">
+        <f t="shared" si="0"/>
+        <v>SOISSONEloise</v>
+      </c>
+      <c r="D61" t="s">
+        <v>534</v>
+      </c>
+      <c r="E61" t="s">
+        <v>535</v>
+      </c>
+      <c r="F61">
+        <v>2.5</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>2.5</v>
+      </c>
+      <c r="I61" t="s">
+        <v>81</v>
+      </c>
+      <c r="J61" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>368</v>
+      </c>
+      <c r="B62" t="s">
+        <v>369</v>
+      </c>
+      <c r="C62" t="str">
+        <f t="shared" si="0"/>
+        <v>DEKEYSER-DESWARTERomain</v>
+      </c>
+      <c r="D62" t="s">
+        <v>370</v>
+      </c>
+      <c r="E62" t="s">
+        <v>536</v>
+      </c>
+      <c r="F62">
+        <v>1.5</v>
+      </c>
+      <c r="G62">
+        <v>1.5</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>334</v>
+      </c>
+      <c r="B63" t="s">
+        <v>335</v>
+      </c>
+      <c r="C63" t="str">
+        <f t="shared" si="0"/>
+        <v>ROLLANDHeloise</v>
+      </c>
+      <c r="D63" t="s">
+        <v>336</v>
+      </c>
+      <c r="E63" t="s">
+        <v>537</v>
+      </c>
+      <c r="F63">
+        <v>4.5</v>
+      </c>
+      <c r="G63">
+        <v>1.5</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>538</v>
+      </c>
+      <c r="B64" t="s">
+        <v>539</v>
+      </c>
+      <c r="C64" t="str">
+        <f t="shared" si="0"/>
+        <v>ALLARTAbigaelle</v>
+      </c>
+      <c r="D64" t="s">
+        <v>540</v>
+      </c>
+      <c r="E64" t="s">
+        <v>541</v>
+      </c>
+      <c r="F64">
+        <v>1.5</v>
+      </c>
+      <c r="G64">
+        <v>1.5</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>227</v>
+      </c>
+      <c r="B65" t="s">
+        <v>228</v>
+      </c>
+      <c r="C65" t="str">
+        <f t="shared" si="0"/>
+        <v>BOEHLEREnzo</v>
+      </c>
+      <c r="D65" t="s">
+        <v>229</v>
+      </c>
+      <c r="E65" t="s">
+        <v>542</v>
+      </c>
+      <c r="F65">
+        <v>1.5</v>
+      </c>
+      <c r="G65">
+        <v>1.5</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>324</v>
+      </c>
+      <c r="B66" t="s">
+        <v>325</v>
+      </c>
+      <c r="C66" t="str">
+        <f t="shared" si="0"/>
+        <v>GARROTMathis</v>
+      </c>
+      <c r="D66" t="s">
+        <v>326</v>
+      </c>
+      <c r="E66" t="s">
+        <v>543</v>
+      </c>
+      <c r="F66">
+        <v>1.5</v>
+      </c>
+      <c r="G66">
+        <v>1.5</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>317</v>
+      </c>
+      <c r="B67" t="s">
+        <v>54</v>
+      </c>
+      <c r="C67" t="str">
+        <f t="shared" ref="C67:C71" si="1">A67&amp;B67</f>
+        <v>VIEIRA-MARTINSThomas</v>
+      </c>
+      <c r="D67" t="s">
+        <v>318</v>
+      </c>
+      <c r="E67" t="s">
+        <v>544</v>
+      </c>
+      <c r="F67">
+        <v>4.5</v>
+      </c>
+      <c r="G67">
+        <v>1.5</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>545</v>
+      </c>
+      <c r="B68" t="s">
+        <v>321</v>
+      </c>
+      <c r="C68" t="str">
+        <f t="shared" si="1"/>
+        <v>NORMANDValentin</v>
+      </c>
+      <c r="D68" t="s">
+        <v>546</v>
+      </c>
+      <c r="E68" t="s">
+        <v>547</v>
+      </c>
+      <c r="F68">
+        <v>3</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>548</v>
+      </c>
+      <c r="B69" t="s">
+        <v>266</v>
+      </c>
+      <c r="C69" t="str">
+        <f t="shared" si="1"/>
+        <v>PORTEMANNathan</v>
+      </c>
+      <c r="D69" t="s">
+        <v>549</v>
+      </c>
+      <c r="E69" t="s">
+        <v>550</v>
+      </c>
+      <c r="F69">
+        <v>7</v>
+      </c>
+      <c r="G69">
+        <v>1.5</v>
+      </c>
+      <c r="H69">
+        <v>2.5</v>
+      </c>
+      <c r="I69">
+        <v>3</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>551</v>
+      </c>
+      <c r="B70" t="s">
+        <v>501</v>
+      </c>
+      <c r="C70" t="str">
+        <f t="shared" si="1"/>
+        <v>CHALINMaxence</v>
+      </c>
+      <c r="D70" t="s">
+        <v>552</v>
+      </c>
+      <c r="E70" t="s">
+        <v>553</v>
+      </c>
+      <c r="F70">
+        <v>10</v>
+      </c>
+      <c r="G70">
+        <v>1.5</v>
+      </c>
+      <c r="H70">
+        <v>2.5</v>
+      </c>
+      <c r="I70">
+        <v>3</v>
+      </c>
+      <c r="J70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>134</v>
+      </c>
+      <c r="B71" t="s">
+        <v>135</v>
+      </c>
+      <c r="C71" t="str">
+        <f t="shared" si="1"/>
+        <v>BOSTYNMaewan</v>
+      </c>
+      <c r="D71" t="s">
+        <v>136</v>
+      </c>
+      <c r="E71" t="s">
+        <v>554</v>
+      </c>
+      <c r="F71">
+        <v>7.5</v>
+      </c>
+      <c r="G71">
+        <v>1.5</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>3</v>
+      </c>
+      <c r="J71">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>555</v>
+      </c>
+      <c r="B72" t="s">
+        <v>273</v>
+      </c>
+      <c r="C72" t="str">
+        <f>A72&amp;B72</f>
+        <v>ARGAILLOTNicolas</v>
+      </c>
+      <c r="D72" t="s">
+        <v>556</v>
+      </c>
+      <c r="E72" t="s">
+        <v>557</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>558</v>
+      </c>
+      <c r="B73" t="s">
+        <v>530</v>
+      </c>
+      <c r="C73" t="str">
+        <f t="shared" ref="C73:C74" si="2">A73&amp;B73</f>
+        <v>DUMAS-VINCENTJulie</v>
+      </c>
+      <c r="D73" t="s">
+        <v>559</v>
+      </c>
+      <c r="E73" t="s">
+        <v>230</v>
+      </c>
+      <c r="F73">
+        <v>7</v>
+      </c>
+      <c r="G73">
+        <v>1.5</v>
+      </c>
+      <c r="H73">
+        <v>2.5</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>383</v>
+      </c>
+      <c r="B74" t="s">
+        <v>384</v>
+      </c>
+      <c r="C74" t="str">
+        <f t="shared" si="2"/>
+        <v>MENASSACybele</v>
+      </c>
+      <c r="D74" t="s">
+        <v>385</v>
+      </c>
+      <c r="E74" t="s">
+        <v>560</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/resultats_sys.xlsx
+++ b/resultats_sys.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cloudlasalle-my.sharepoint.com/personal/hamilton_araujo_unilasalle_fr/Documents/Bureau/maths_partage/app_maths/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="8_{64654894-7BCD-4DDA-A684-01A8030076A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7C20ACF1-DE07-CA47-9D3B-2F7B6062C50D}"/>
+  <xr:revisionPtr revIDLastSave="45" documentId="8_{64654894-7BCD-4DDA-A684-01A8030076A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0459545A-9CEC-4D39-B79A-7AEE7EC55452}"/>
   <bookViews>
-    <workbookView xWindow="1240" yWindow="500" windowWidth="27560" windowHeight="17500" activeTab="1" xr2:uid="{C4993497-0429-4237-A44D-514794E26B85}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{C4993497-0429-4237-A44D-514794E26B85}"/>
   </bookViews>
   <sheets>
     <sheet name="t1_sys_1712" sheetId="1" r:id="rId1"/>
     <sheet name="t2_sys_2012" sheetId="2" r:id="rId2"/>
+    <sheet name="t3_sys_0601" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="762">
   <si>
     <t>Nom de famille</t>
   </si>
@@ -1720,13 +1721,616 @@
   </si>
   <si>
     <t>14 min 26 s</t>
+  </si>
+  <si>
+    <t>22 min 33 s</t>
+  </si>
+  <si>
+    <t>DELAHAIS</t>
+  </si>
+  <si>
+    <t>clemence.delahais@etu.unilasalle.fr</t>
+  </si>
+  <si>
+    <t>9 min 59 s</t>
+  </si>
+  <si>
+    <t>13 min 29 s</t>
+  </si>
+  <si>
+    <t>12 min 9 s</t>
+  </si>
+  <si>
+    <t>DE VERGNETTE DE LAMOTTE</t>
+  </si>
+  <si>
+    <t>Lucas</t>
+  </si>
+  <si>
+    <t>lucas.devergnettedelamotte@etu.unilasalle.fr</t>
+  </si>
+  <si>
+    <t>7 min 27 s</t>
+  </si>
+  <si>
+    <t>MAZET</t>
+  </si>
+  <si>
+    <t>Eric</t>
+  </si>
+  <si>
+    <t>eric.mazet@etu.unilasalle.fr</t>
+  </si>
+  <si>
+    <t>18 min 47 s</t>
+  </si>
+  <si>
+    <t>15 min 47 s</t>
+  </si>
+  <si>
+    <t>CARLIER</t>
+  </si>
+  <si>
+    <t>Coline</t>
+  </si>
+  <si>
+    <t>coline.carlier@etu.unilasalle.fr</t>
+  </si>
+  <si>
+    <t>7 min 45 s</t>
+  </si>
+  <si>
+    <t>ROUSSELIN</t>
+  </si>
+  <si>
+    <t>Joseph</t>
+  </si>
+  <si>
+    <t>joseph.rousselin@etu.unilasalle.fr</t>
+  </si>
+  <si>
+    <t>2 min 28 s</t>
+  </si>
+  <si>
+    <t>DEGAS</t>
+  </si>
+  <si>
+    <t>alban.degas@etu.unilasalle.fr</t>
+  </si>
+  <si>
+    <t>10 min 47 s</t>
+  </si>
+  <si>
+    <t>Gustav</t>
+  </si>
+  <si>
+    <t>gustav.martin@etu.unilasalle.fr</t>
+  </si>
+  <si>
+    <t>4 min 29 s</t>
+  </si>
+  <si>
+    <t>TANDART</t>
+  </si>
+  <si>
+    <t>nathan.tandart@etu.unilasalle.fr</t>
+  </si>
+  <si>
+    <t>23 min 32 s</t>
+  </si>
+  <si>
+    <t>13 min 5 s</t>
+  </si>
+  <si>
+    <t>8 min 52 s</t>
+  </si>
+  <si>
+    <t>LECOINTE</t>
+  </si>
+  <si>
+    <t>enzo.lecointe@etu.unilasalle.fr</t>
+  </si>
+  <si>
+    <t>3 min 38 s</t>
+  </si>
+  <si>
+    <t>DE FAUTEREAU-VASSEL</t>
+  </si>
+  <si>
+    <t>Luc</t>
+  </si>
+  <si>
+    <t>luc.defautereau-vassel@etu.unilasalle.fr</t>
+  </si>
+  <si>
+    <t>7 min 33 s</t>
+  </si>
+  <si>
+    <t>6 min 20 s</t>
+  </si>
+  <si>
+    <t>GUILBERT</t>
+  </si>
+  <si>
+    <t>alban.guilbert@etu.unilasalle.fr</t>
+  </si>
+  <si>
+    <t>9 min 5 s</t>
+  </si>
+  <si>
+    <t>1 min 49 s</t>
+  </si>
+  <si>
+    <t>5 min 30 s</t>
+  </si>
+  <si>
+    <t>LEKANGA MBOMA</t>
+  </si>
+  <si>
+    <t>Amassa Roland Nathanael</t>
+  </si>
+  <si>
+    <t>amassarolandnathanael.lekangamboma@etu.unilasalle.fr</t>
+  </si>
+  <si>
+    <t>9 min 26 s</t>
+  </si>
+  <si>
+    <t>16 min 9 s</t>
+  </si>
+  <si>
+    <t>22 min 54 s</t>
+  </si>
+  <si>
+    <t>BOUDET</t>
+  </si>
+  <si>
+    <t>louis.boudet@etu.unilasalle.fr</t>
+  </si>
+  <si>
+    <t>12 min 45 s</t>
+  </si>
+  <si>
+    <t>18 min 21 s</t>
+  </si>
+  <si>
+    <t>BARABE</t>
+  </si>
+  <si>
+    <t>antoine.barabe@etu.unilasalle.fr</t>
+  </si>
+  <si>
+    <t>29 min 40 s</t>
+  </si>
+  <si>
+    <t>2 min 46 s</t>
+  </si>
+  <si>
+    <t>10 min 1 s</t>
+  </si>
+  <si>
+    <t>7 min 49 s</t>
+  </si>
+  <si>
+    <t>11 min 41 s</t>
+  </si>
+  <si>
+    <t>GRISLAIN</t>
+  </si>
+  <si>
+    <t>thomas.grislain@etu.unilasalle.fr</t>
+  </si>
+  <si>
+    <t>DIETLIN</t>
+  </si>
+  <si>
+    <t>Pierre-Antoine</t>
+  </si>
+  <si>
+    <t>pierre-antoine.dietlin@etu.unilasalle.fr</t>
+  </si>
+  <si>
+    <t>27 min 29 s</t>
+  </si>
+  <si>
+    <t>25 min 5 s</t>
+  </si>
+  <si>
+    <t>29 min 59 s</t>
+  </si>
+  <si>
+    <t>13 min 53 s</t>
+  </si>
+  <si>
+    <t>VIENNET</t>
+  </si>
+  <si>
+    <t>romain.viennet@etu.unilasalle.fr</t>
+  </si>
+  <si>
+    <t>29 min 58 s</t>
+  </si>
+  <si>
+    <t>24 min 10 s</t>
+  </si>
+  <si>
+    <t>21 min 44 s</t>
+  </si>
+  <si>
+    <t>28 s</t>
+  </si>
+  <si>
+    <t>17 min 7 s</t>
+  </si>
+  <si>
+    <t>29 min 46 s</t>
+  </si>
+  <si>
+    <t>27 min 42 s</t>
+  </si>
+  <si>
+    <t>VAN COPPENOLLE</t>
+  </si>
+  <si>
+    <t>Laura</t>
+  </si>
+  <si>
+    <t>laura.vancoppenolle@etu.unilasalle.fr</t>
+  </si>
+  <si>
+    <t>23 min 52 s</t>
+  </si>
+  <si>
+    <t>DU BREIL DE PONTBRIAND</t>
+  </si>
+  <si>
+    <t>Clotilde</t>
+  </si>
+  <si>
+    <t>clotilde.dubreildepontbriand@etu.unilasalle.fr</t>
+  </si>
+  <si>
+    <t>2 min 4 s</t>
+  </si>
+  <si>
+    <t>POPOT</t>
+  </si>
+  <si>
+    <t>Timothee</t>
+  </si>
+  <si>
+    <t>timothee.popot@etu.unilasalle.fr</t>
+  </si>
+  <si>
+    <t>21 min 38 s</t>
+  </si>
+  <si>
+    <t>20 min 13 s</t>
+  </si>
+  <si>
+    <t>DEPAQUIT</t>
+  </si>
+  <si>
+    <t>Augustin</t>
+  </si>
+  <si>
+    <t>augustin.depaquit@etu.unilasalle.fr</t>
+  </si>
+  <si>
+    <t>3 min 19 s</t>
+  </si>
+  <si>
+    <t>15 min 12 s</t>
+  </si>
+  <si>
+    <t>PONTY</t>
+  </si>
+  <si>
+    <t>romain.ponty@etu.unilasalle.fr</t>
+  </si>
+  <si>
+    <t>11 min 39 s</t>
+  </si>
+  <si>
+    <t>VIET</t>
+  </si>
+  <si>
+    <t>baptiste.viet@etu.unilasalle.fr</t>
+  </si>
+  <si>
+    <t>9 min 16 s</t>
+  </si>
+  <si>
+    <t>DELAHAYE</t>
+  </si>
+  <si>
+    <t>blandine.delahaye@etu.unilasalle.fr</t>
+  </si>
+  <si>
+    <t>31 s</t>
+  </si>
+  <si>
+    <t>6 min 10 s</t>
+  </si>
+  <si>
+    <t>GIBRAT</t>
+  </si>
+  <si>
+    <t>louise.gibrat@etu.unilasalle.fr</t>
+  </si>
+  <si>
+    <t>11 min 46 s</t>
+  </si>
+  <si>
+    <t>23 min 44 s</t>
+  </si>
+  <si>
+    <t>16 min 45 s</t>
+  </si>
+  <si>
+    <t>DESPRES</t>
+  </si>
+  <si>
+    <t>Maylis</t>
+  </si>
+  <si>
+    <t>maylis.despres@etu.unilasalle.fr</t>
+  </si>
+  <si>
+    <t>11 min 12 s</t>
+  </si>
+  <si>
+    <t>13 min 33 s</t>
+  </si>
+  <si>
+    <t>LE HANNIER</t>
+  </si>
+  <si>
+    <t>Dea</t>
+  </si>
+  <si>
+    <t>dea.lehannier@etu.unilasalle.fr</t>
+  </si>
+  <si>
+    <t>17 min 29 s</t>
+  </si>
+  <si>
+    <t>13 min 36 s</t>
+  </si>
+  <si>
+    <t>DEBOUDT</t>
+  </si>
+  <si>
+    <t>Gatien</t>
+  </si>
+  <si>
+    <t>gatien.deboudt@etu.unilasalle.fr</t>
+  </si>
+  <si>
+    <t>11 min 31 s</t>
+  </si>
+  <si>
+    <t>2 min 42 s</t>
+  </si>
+  <si>
+    <t>29 min 24 s</t>
+  </si>
+  <si>
+    <t>5 min 40 s</t>
+  </si>
+  <si>
+    <t>10 min 49 s</t>
+  </si>
+  <si>
+    <t>CELISSE</t>
+  </si>
+  <si>
+    <t>antoine.celisse@etu.unilasalle.fr</t>
+  </si>
+  <si>
+    <t>15 min 28 s</t>
+  </si>
+  <si>
+    <t>PECOURT</t>
+  </si>
+  <si>
+    <t>Bertille</t>
+  </si>
+  <si>
+    <t>bertille.pecourt@etu.unilasalle.fr</t>
+  </si>
+  <si>
+    <t>12 min</t>
+  </si>
+  <si>
+    <t>ROELENS</t>
+  </si>
+  <si>
+    <t>Enguerrand</t>
+  </si>
+  <si>
+    <t>enguerrand.roelens@etu.unilasalle.fr</t>
+  </si>
+  <si>
+    <t>13 min 44 s</t>
+  </si>
+  <si>
+    <t>25 min 7 s</t>
+  </si>
+  <si>
+    <t>5 min 59 s</t>
+  </si>
+  <si>
+    <t>9 min 31 s</t>
+  </si>
+  <si>
+    <t>VITTA</t>
+  </si>
+  <si>
+    <t>Brad</t>
+  </si>
+  <si>
+    <t>brad.vitta@etu.unilasalle.fr</t>
+  </si>
+  <si>
+    <t>18 min 54 s</t>
+  </si>
+  <si>
+    <t>4 min 9 s</t>
+  </si>
+  <si>
+    <t>28 min 52 s</t>
+  </si>
+  <si>
+    <t>HAMOT</t>
+  </si>
+  <si>
+    <t>Priscille</t>
+  </si>
+  <si>
+    <t>priscille.hamot@etu.unilasalle.fr</t>
+  </si>
+  <si>
+    <t>3 min 31 s</t>
+  </si>
+  <si>
+    <t>FOULON-DETREZ</t>
+  </si>
+  <si>
+    <t>Clelia</t>
+  </si>
+  <si>
+    <t>clelia.foulon-detrez@etu.unilasalle.fr</t>
+  </si>
+  <si>
+    <t>13 min 40 s</t>
+  </si>
+  <si>
+    <t>BOUTILLIER</t>
+  </si>
+  <si>
+    <t>hugo.boutillier@etu.unilasalle.fr</t>
+  </si>
+  <si>
+    <t>3 min 44 s</t>
+  </si>
+  <si>
+    <t>VERDIER</t>
+  </si>
+  <si>
+    <t>julien.verdier@etu.unilasalle.fr</t>
+  </si>
+  <si>
+    <t>16 min 30 s</t>
+  </si>
+  <si>
+    <t>26 min 19 s</t>
+  </si>
+  <si>
+    <t>27 min 27 s</t>
+  </si>
+  <si>
+    <t>20 min 42 s</t>
+  </si>
+  <si>
+    <t>MENNERET-COUTURIER</t>
+  </si>
+  <si>
+    <t>hugo.menneret-couturier@etu.unilasalle.fr</t>
+  </si>
+  <si>
+    <t>6 min 25 s</t>
+  </si>
+  <si>
+    <t>3 min 10 s</t>
+  </si>
+  <si>
+    <t>GUITTARD</t>
+  </si>
+  <si>
+    <t>Clementine</t>
+  </si>
+  <si>
+    <t>clementine.guittard@etu.unilasalle.fr</t>
+  </si>
+  <si>
+    <t>2 min 56 s</t>
+  </si>
+  <si>
+    <t>4 min 3 s</t>
+  </si>
+  <si>
+    <t>2 min 40 s</t>
+  </si>
+  <si>
+    <t>3 min 58 s</t>
+  </si>
+  <si>
+    <t>1 min 29 s</t>
+  </si>
+  <si>
+    <t>SAMPERS</t>
+  </si>
+  <si>
+    <t>Lucile</t>
+  </si>
+  <si>
+    <t>lucile.sampers@etu.unilasalle.fr</t>
+  </si>
+  <si>
+    <t>29 min 35 s</t>
+  </si>
+  <si>
+    <t>54 s</t>
+  </si>
+  <si>
+    <t>GAILLARD DE SAINT GERMAIN</t>
+  </si>
+  <si>
+    <t>louis.gaillarddesaintgermain@etu.unilasalle.fr</t>
+  </si>
+  <si>
+    <t>DE COSTER</t>
+  </si>
+  <si>
+    <t>eliot.decoster@etu.unilasalle.fr</t>
+  </si>
+  <si>
+    <t>5 min 3 s</t>
+  </si>
+  <si>
+    <t>14 min 2 s</t>
+  </si>
+  <si>
+    <t>GODEBERT</t>
+  </si>
+  <si>
+    <t>Brice</t>
+  </si>
+  <si>
+    <t>brice.godebert@etu.unilasalle.fr</t>
+  </si>
+  <si>
+    <t>16 s</t>
+  </si>
+  <si>
+    <t>3 min 7 s</t>
+  </si>
+  <si>
+    <t>46 s</t>
+  </si>
+  <si>
+    <t>31 min 27 s</t>
+  </si>
+  <si>
+    <t>22 min 50 s</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1739,6 +2343,11 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1758,18 +2367,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{C50C940F-A145-4830-AB20-1ED8685BCE38}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{5752FE87-E697-401D-B623-F4CCF570F877}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2104,18 +2717,18 @@
   <dimension ref="A1:J103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="51.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="51.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2147,7 +2760,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -2180,7 +2793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -2213,7 +2826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -2246,7 +2859,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
@@ -2279,7 +2892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>25</v>
       </c>
@@ -2312,7 +2925,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>29</v>
       </c>
@@ -2345,7 +2958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>33</v>
       </c>
@@ -2378,7 +2991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>37</v>
       </c>
@@ -2411,7 +3024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>41</v>
       </c>
@@ -2444,7 +3057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>45</v>
       </c>
@@ -2477,7 +3090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>49</v>
       </c>
@@ -2510,7 +3123,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>53</v>
       </c>
@@ -2543,7 +3156,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>57</v>
       </c>
@@ -2576,7 +3189,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>61</v>
       </c>
@@ -2609,7 +3222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>65</v>
       </c>
@@ -2642,7 +3255,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>69</v>
       </c>
@@ -2675,7 +3288,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>73</v>
       </c>
@@ -2708,7 +3321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>77</v>
       </c>
@@ -2741,7 +3354,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>82</v>
       </c>
@@ -2774,7 +3387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>86</v>
       </c>
@@ -2807,7 +3420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>90</v>
       </c>
@@ -2840,7 +3453,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>94</v>
       </c>
@@ -2873,7 +3486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>98</v>
       </c>
@@ -2906,7 +3519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>102</v>
       </c>
@@ -2939,7 +3552,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>106</v>
       </c>
@@ -2972,7 +3585,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>110</v>
       </c>
@@ -3005,7 +3618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>114</v>
       </c>
@@ -3038,7 +3651,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>118</v>
       </c>
@@ -3071,7 +3684,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>122</v>
       </c>
@@ -3104,7 +3717,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>126</v>
       </c>
@@ -3137,7 +3750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>130</v>
       </c>
@@ -3170,7 +3783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>134</v>
       </c>
@@ -3203,7 +3816,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>138</v>
       </c>
@@ -3236,7 +3849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>142</v>
       </c>
@@ -3269,7 +3882,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>146</v>
       </c>
@@ -3302,7 +3915,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>150</v>
       </c>
@@ -3335,7 +3948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>152</v>
       </c>
@@ -3368,7 +3981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>156</v>
       </c>
@@ -3401,7 +4014,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>160</v>
       </c>
@@ -3434,7 +4047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>164</v>
       </c>
@@ -3467,7 +4080,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>168</v>
       </c>
@@ -3500,7 +4113,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>172</v>
       </c>
@@ -3533,7 +4146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>176</v>
       </c>
@@ -3566,7 +4179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>179</v>
       </c>
@@ -3599,7 +4212,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>183</v>
       </c>
@@ -3632,7 +4245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>187</v>
       </c>
@@ -3665,7 +4278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>191</v>
       </c>
@@ -3698,7 +4311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>195</v>
       </c>
@@ -3731,7 +4344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>199</v>
       </c>
@@ -3764,7 +4377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>203</v>
       </c>
@@ -3797,7 +4410,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>207</v>
       </c>
@@ -3830,7 +4443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>211</v>
       </c>
@@ -3863,7 +4476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>215</v>
       </c>
@@ -3896,7 +4509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>219</v>
       </c>
@@ -3929,7 +4542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>223</v>
       </c>
@@ -3962,7 +4575,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>227</v>
       </c>
@@ -3995,7 +4608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>231</v>
       </c>
@@ -4028,7 +4641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>235</v>
       </c>
@@ -4061,7 +4674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>239</v>
       </c>
@@ -4094,7 +4707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>242</v>
       </c>
@@ -4127,7 +4740,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>245</v>
       </c>
@@ -4160,7 +4773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>249</v>
       </c>
@@ -4193,7 +4806,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>253</v>
       </c>
@@ -4226,7 +4839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>257</v>
       </c>
@@ -4259,7 +4872,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>261</v>
       </c>
@@ -4292,7 +4905,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>265</v>
       </c>
@@ -4325,7 +4938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>269</v>
       </c>
@@ -4358,7 +4971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>272</v>
       </c>
@@ -4391,7 +5004,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>276</v>
       </c>
@@ -4424,7 +5037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>279</v>
       </c>
@@ -4457,7 +5070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>282</v>
       </c>
@@ -4490,7 +5103,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>61</v>
       </c>
@@ -4523,7 +5136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>288</v>
       </c>
@@ -4556,7 +5169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>291</v>
       </c>
@@ -4589,7 +5202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>294</v>
       </c>
@@ -4622,7 +5235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>298</v>
       </c>
@@ -4655,7 +5268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>302</v>
       </c>
@@ -4688,7 +5301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>306</v>
       </c>
@@ -4721,7 +5334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>310</v>
       </c>
@@ -4754,7 +5367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>314</v>
       </c>
@@ -4787,7 +5400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>317</v>
       </c>
@@ -4820,7 +5433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>320</v>
       </c>
@@ -4853,7 +5466,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>324</v>
       </c>
@@ -4886,7 +5499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>328</v>
       </c>
@@ -4919,7 +5532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>331</v>
       </c>
@@ -4952,7 +5565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>334</v>
       </c>
@@ -4985,7 +5598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>338</v>
       </c>
@@ -5018,7 +5631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>342</v>
       </c>
@@ -5051,7 +5664,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>345</v>
       </c>
@@ -5084,7 +5697,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>348</v>
       </c>
@@ -5117,7 +5730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>352</v>
       </c>
@@ -5150,7 +5763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>355</v>
       </c>
@@ -5183,7 +5796,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>359</v>
       </c>
@@ -5216,7 +5829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>362</v>
       </c>
@@ -5249,7 +5862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>219</v>
       </c>
@@ -5282,7 +5895,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>368</v>
       </c>
@@ -5315,7 +5928,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="98" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>372</v>
       </c>
@@ -5348,7 +5961,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>376</v>
       </c>
@@ -5381,7 +5994,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>257</v>
       </c>
@@ -5414,7 +6027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>383</v>
       </c>
@@ -5447,7 +6060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>387</v>
       </c>
@@ -5480,7 +6093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>391</v>
       </c>
@@ -5522,13 +6135,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA4693AA-F571-3840-BDDB-1F105AC46288}">
   <dimension ref="A1:J74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="H77" sqref="H77"/>
+    <sheetView topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="S57" sqref="S57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5560,7 +6173,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>394</v>
       </c>
@@ -5593,7 +6206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>176</v>
       </c>
@@ -5626,7 +6239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>399</v>
       </c>
@@ -5659,7 +6272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>110</v>
       </c>
@@ -5692,7 +6305,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>403</v>
       </c>
@@ -5725,7 +6338,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>407</v>
       </c>
@@ -5758,7 +6371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>86</v>
       </c>
@@ -5791,7 +6404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>294</v>
       </c>
@@ -5824,7 +6437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>412</v>
       </c>
@@ -5857,7 +6470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>416</v>
       </c>
@@ -5890,7 +6503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>420</v>
       </c>
@@ -5923,7 +6536,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>423</v>
       </c>
@@ -5956,7 +6569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>426</v>
       </c>
@@ -5989,7 +6602,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>77</v>
       </c>
@@ -6022,7 +6635,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>430</v>
       </c>
@@ -6055,7 +6668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>434</v>
       </c>
@@ -6088,7 +6701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>438</v>
       </c>
@@ -6121,7 +6734,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>442</v>
       </c>
@@ -6154,7 +6767,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>446</v>
       </c>
@@ -6187,7 +6800,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>102</v>
       </c>
@@ -6220,7 +6833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>362</v>
       </c>
@@ -6253,7 +6866,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>452</v>
       </c>
@@ -6286,7 +6899,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>276</v>
       </c>
@@ -6319,7 +6932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>457</v>
       </c>
@@ -6352,7 +6965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>61</v>
       </c>
@@ -6385,7 +6998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>461</v>
       </c>
@@ -6418,7 +7031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>465</v>
       </c>
@@ -6451,7 +7064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>94</v>
       </c>
@@ -6484,7 +7097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>61</v>
       </c>
@@ -6517,7 +7130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>469</v>
       </c>
@@ -6550,7 +7163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>473</v>
       </c>
@@ -6583,7 +7196,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>146</v>
       </c>
@@ -6616,7 +7229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>187</v>
       </c>
@@ -6649,7 +7262,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>479</v>
       </c>
@@ -6682,7 +7295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>172</v>
       </c>
@@ -6715,7 +7328,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>138</v>
       </c>
@@ -6748,7 +7361,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>195</v>
       </c>
@@ -6781,7 +7394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>114</v>
       </c>
@@ -6814,7 +7427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>486</v>
       </c>
@@ -6847,7 +7460,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>489</v>
       </c>
@@ -6880,7 +7493,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>493</v>
       </c>
@@ -6913,7 +7526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>497</v>
       </c>
@@ -6946,7 +7559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>500</v>
       </c>
@@ -6979,7 +7592,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>504</v>
       </c>
@@ -7012,7 +7625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>507</v>
       </c>
@@ -7045,7 +7658,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>310</v>
       </c>
@@ -7078,7 +7691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>511</v>
       </c>
@@ -7111,7 +7724,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>298</v>
       </c>
@@ -7144,7 +7757,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>291</v>
       </c>
@@ -7177,7 +7790,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>261</v>
       </c>
@@ -7210,7 +7823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>516</v>
       </c>
@@ -7243,7 +7856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>13</v>
       </c>
@@ -7276,7 +7889,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>41</v>
       </c>
@@ -7309,7 +7922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>183</v>
       </c>
@@ -7342,7 +7955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>520</v>
       </c>
@@ -7375,7 +7988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>253</v>
       </c>
@@ -7408,7 +8021,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>525</v>
       </c>
@@ -7441,7 +8054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>191</v>
       </c>
@@ -7474,7 +8087,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>529</v>
       </c>
@@ -7507,7 +8120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>533</v>
       </c>
@@ -7540,7 +8153,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>368</v>
       </c>
@@ -7573,7 +8186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>334</v>
       </c>
@@ -7606,7 +8219,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>538</v>
       </c>
@@ -7639,7 +8252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>227</v>
       </c>
@@ -7672,7 +8285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>324</v>
       </c>
@@ -7705,7 +8318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>317</v>
       </c>
@@ -7738,7 +8351,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>545</v>
       </c>
@@ -7771,7 +8384,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>548</v>
       </c>
@@ -7804,7 +8417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>551</v>
       </c>
@@ -7837,7 +8450,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>134</v>
       </c>
@@ -7870,7 +8483,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>555</v>
       </c>
@@ -7903,7 +8516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>558</v>
       </c>
@@ -7936,7 +8549,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>383</v>
       </c>
@@ -7966,6 +8579,3584 @@
         <v>0</v>
       </c>
       <c r="J74">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B7B00BD-7A9E-4BF6-A590-ADCCE5AEB79D}">
+  <dimension ref="A1:J108"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="L105" sqref="L105"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C2" s="3" t="str">
+        <f>A2&amp;B2</f>
+        <v>LAMARETony</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="F2" s="4">
+        <v>10</v>
+      </c>
+      <c r="G2" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="H2" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="I2" s="4">
+        <v>3</v>
+      </c>
+      <c r="J2" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C3" s="3" t="str">
+        <f t="shared" ref="C3:C66" si="0">A3&amp;B3</f>
+        <v>DELAHAISClemence</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="F3" s="4">
+        <v>10</v>
+      </c>
+      <c r="G3" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="H3" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="I3" s="4">
+        <v>3</v>
+      </c>
+      <c r="J3" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C4" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>JACQUESAlix</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="F4" s="4">
+        <v>10</v>
+      </c>
+      <c r="G4" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="H4" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="I4" s="4">
+        <v>3</v>
+      </c>
+      <c r="J4" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>DE POURCQHenri</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="F5" s="4">
+        <v>10</v>
+      </c>
+      <c r="G5" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="H5" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="I5" s="4">
+        <v>3</v>
+      </c>
+      <c r="J5" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="C6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>DE VERGNETTE DE LAMOTTELucas</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F6" s="4">
+        <v>10</v>
+      </c>
+      <c r="G6" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="H6" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="I6" s="4">
+        <v>3</v>
+      </c>
+      <c r="J6" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>TAHROUCHHind</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="F7" s="4">
+        <v>10</v>
+      </c>
+      <c r="G7" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="H7" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="I7" s="4">
+        <v>3</v>
+      </c>
+      <c r="J7" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>ENTINGERGregoire</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="F8" s="4">
+        <v>10</v>
+      </c>
+      <c r="G8" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="H8" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="I8" s="4">
+        <v>3</v>
+      </c>
+      <c r="J8" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="C9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>MAZETEric</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="F9" s="4">
+        <v>10</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="H9" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="I9" s="4">
+        <v>3</v>
+      </c>
+      <c r="J9" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="C10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>CHOPINZelie</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="F10" s="4">
+        <v>10</v>
+      </c>
+      <c r="G10" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="H10" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="I10" s="4">
+        <v>3</v>
+      </c>
+      <c r="J10" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="C11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>CARLIERColine</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="F11" s="4">
+        <v>10</v>
+      </c>
+      <c r="G11" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="H11" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="I11" s="4">
+        <v>3</v>
+      </c>
+      <c r="J11" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="C12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>ROUSSELINJoseph</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="F12" s="4">
+        <v>10</v>
+      </c>
+      <c r="G12" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="H12" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="I12" s="4">
+        <v>3</v>
+      </c>
+      <c r="J12" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="C13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>DEGASAlban</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="F13" s="4">
+        <v>8.5</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0</v>
+      </c>
+      <c r="H13" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="I13" s="4">
+        <v>3</v>
+      </c>
+      <c r="J13" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="C14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>MARTINGustav</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="F14" s="4">
+        <v>8.5</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0</v>
+      </c>
+      <c r="H14" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="I14" s="4">
+        <v>3</v>
+      </c>
+      <c r="J14" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>TANDARTNathan</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="F15" s="4">
+        <v>8.5</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0</v>
+      </c>
+      <c r="H15" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="I15" s="4">
+        <v>3</v>
+      </c>
+      <c r="J15" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="C16" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>ANTY-MANIERRobin</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="F16" s="4">
+        <v>8.5</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0</v>
+      </c>
+      <c r="H16" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="I16" s="4">
+        <v>3</v>
+      </c>
+      <c r="J16" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="C17" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>DEKEYSER-DESWARTERomain</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="F17" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="G17" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="H17" s="4">
+        <v>0</v>
+      </c>
+      <c r="I17" s="4">
+        <v>3</v>
+      </c>
+      <c r="J17" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C18" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>LECOINTEEnzo</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="F18" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="G18" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="H18" s="4">
+        <v>0</v>
+      </c>
+      <c r="I18" s="4">
+        <v>3</v>
+      </c>
+      <c r="J18" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="C19" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>DE FAUTEREAU-VASSELLuc</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="F19" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="G19" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="H19" s="4">
+        <v>0</v>
+      </c>
+      <c r="I19" s="4">
+        <v>3</v>
+      </c>
+      <c r="J19" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="C20" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>LEROUXPaul</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="F20" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="G20" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="H20" s="4">
+        <v>0</v>
+      </c>
+      <c r="I20" s="4">
+        <v>3</v>
+      </c>
+      <c r="J20" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C21" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>DUYNSLAGERArmelle</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="F21" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="G21" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="H21" s="4">
+        <v>0</v>
+      </c>
+      <c r="I21" s="4">
+        <v>3</v>
+      </c>
+      <c r="J21" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="C22" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>GUILBERTAlban</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="F22" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="G22" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="H22" s="4">
+        <v>0</v>
+      </c>
+      <c r="I22" s="4">
+        <v>3</v>
+      </c>
+      <c r="J22" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="C23" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>DUPUITAlban</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="F23" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="G23" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="H23" s="4">
+        <v>0</v>
+      </c>
+      <c r="I23" s="4">
+        <v>3</v>
+      </c>
+      <c r="J23" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C24" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>GUILLEMINFrance</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="F24" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="G24" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="H24" s="4">
+        <v>0</v>
+      </c>
+      <c r="I24" s="4">
+        <v>3</v>
+      </c>
+      <c r="J24" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="C25" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>LEKANGA MBOMAAmassa Roland Nathanael</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="F25" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="G25" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="H25" s="4">
+        <v>0</v>
+      </c>
+      <c r="I25" s="4">
+        <v>3</v>
+      </c>
+      <c r="J25" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C26" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>DELAGNEAUAbygaelle</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="F26" s="4">
+        <v>7</v>
+      </c>
+      <c r="G26" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="H26" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="I26" s="4">
+        <v>3</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C27" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>LEVEAUXNicolas</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="F27" s="4">
+        <v>7</v>
+      </c>
+      <c r="G27" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="H27" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="I27" s="4">
+        <v>0</v>
+      </c>
+      <c r="J27" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="C28" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>BOUDETLouis</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="F28" s="4">
+        <v>7</v>
+      </c>
+      <c r="G28" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="H28" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="I28" s="4">
+        <v>0</v>
+      </c>
+      <c r="J28" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C29" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>FAYOLVictor</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="F29" s="4">
+        <v>7</v>
+      </c>
+      <c r="G29" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="H29" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="I29" s="4">
+        <v>0</v>
+      </c>
+      <c r="J29" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C30" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>BARABEAntoine</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="F30" s="4">
+        <v>7</v>
+      </c>
+      <c r="G30" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="H30" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="I30" s="4">
+        <v>0</v>
+      </c>
+      <c r="J30" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C31" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>DUBOTVictor</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="F31" s="4">
+        <v>7</v>
+      </c>
+      <c r="G31" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="H31" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="I31" s="4">
+        <v>0</v>
+      </c>
+      <c r="J31" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="C32" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>BARBIEREliot</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="F32" s="4">
+        <v>7</v>
+      </c>
+      <c r="G32" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="H32" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="I32" s="4">
+        <v>3</v>
+      </c>
+      <c r="J32" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C33" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>MABILEAUAlois</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="F33" s="4">
+        <v>7</v>
+      </c>
+      <c r="G33" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="H33" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="I33" s="4">
+        <v>3</v>
+      </c>
+      <c r="J33" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>VAVASSEURCharlotte</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="F34" s="4">
+        <v>7</v>
+      </c>
+      <c r="G34" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="H34" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="I34" s="4">
+        <v>0</v>
+      </c>
+      <c r="J34" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>GRISLAINThomas</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="4">
+        <v>7</v>
+      </c>
+      <c r="G35" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="H35" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="I35" s="4">
+        <v>0</v>
+      </c>
+      <c r="J35" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="C36" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>DIETLINPierre-Antoine</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="F36" s="4">
+        <v>7</v>
+      </c>
+      <c r="G36" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="H36" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="I36" s="4">
+        <v>0</v>
+      </c>
+      <c r="J36" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C37" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>GASPARDOLouise</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="F37" s="4">
+        <v>7</v>
+      </c>
+      <c r="G37" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="H37" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="I37" s="4">
+        <v>0</v>
+      </c>
+      <c r="J37" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="C38" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>HERMANTAnaelle</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="F38" s="4">
+        <v>7</v>
+      </c>
+      <c r="G38" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="H38" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="I38" s="4">
+        <v>0</v>
+      </c>
+      <c r="J38" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C39" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>MOTTEBertrand</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="F39" s="4">
+        <v>7</v>
+      </c>
+      <c r="G39" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="H39" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="I39" s="4">
+        <v>0</v>
+      </c>
+      <c r="J39" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>DALES DE CORBETRomane</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="F40" s="4">
+        <v>7</v>
+      </c>
+      <c r="G40" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="H40" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="I40" s="4">
+        <v>3</v>
+      </c>
+      <c r="J40" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="C41" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>VIENNETRomain</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="F41" s="4">
+        <v>7</v>
+      </c>
+      <c r="G41" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="H41" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="I41" s="4">
+        <v>3</v>
+      </c>
+      <c r="J41" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C42" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>MARANTAlix</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="F42" s="4">
+        <v>7</v>
+      </c>
+      <c r="G42" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="H42" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="I42" s="4">
+        <v>0</v>
+      </c>
+      <c r="J42" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="C43" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>NORMANDValentin</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="F43" s="4">
+        <v>6</v>
+      </c>
+      <c r="G43" s="4">
+        <v>0</v>
+      </c>
+      <c r="H43" s="4">
+        <v>0</v>
+      </c>
+      <c r="I43" s="4">
+        <v>3</v>
+      </c>
+      <c r="J43" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C44" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PICAULTGregoire</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="F44" s="4">
+        <v>6</v>
+      </c>
+      <c r="G44" s="4">
+        <v>0</v>
+      </c>
+      <c r="H44" s="4">
+        <v>0</v>
+      </c>
+      <c r="I44" s="4">
+        <v>3</v>
+      </c>
+      <c r="J44" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C45" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>LECERFNathan</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="F45" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="G45" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="H45" s="4">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="J45" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C46" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>DEPARISVictor</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="F46" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="G46" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="H46" s="4">
+        <v>0</v>
+      </c>
+      <c r="I46" s="4">
+        <v>0</v>
+      </c>
+      <c r="J46" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C47" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>JOURDAINClothilde</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="F47" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="G47" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="H47" s="4">
+        <v>0</v>
+      </c>
+      <c r="I47" s="4">
+        <v>3</v>
+      </c>
+      <c r="J47" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="C48" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>VAN COPPENOLLELaura</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F48" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="G48" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="H48" s="4">
+        <v>0</v>
+      </c>
+      <c r="I48" s="4">
+        <v>0</v>
+      </c>
+      <c r="J48" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C49" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>LEGRANDMahe</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="F49" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="G49" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="H49" s="4">
+        <v>0</v>
+      </c>
+      <c r="I49" s="4">
+        <v>0</v>
+      </c>
+      <c r="J49" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="C50" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>DU BREIL DE PONTBRIANDClotilde</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="F50" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="G50" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="H50" s="4">
+        <v>0</v>
+      </c>
+      <c r="I50" s="4">
+        <v>0</v>
+      </c>
+      <c r="J50" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="C51" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>POPOTTimothee</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="F51" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="G51" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="H51" s="4">
+        <v>0</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="J51" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="C52" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>LE CAMEloise</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="F52" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="G52" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="H52" s="4">
+        <v>0</v>
+      </c>
+      <c r="I52" s="4">
+        <v>3</v>
+      </c>
+      <c r="J52" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="C53" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>DEPAQUITAugustin</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="F53" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="G53" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="H53" s="4">
+        <v>0</v>
+      </c>
+      <c r="I53" s="4">
+        <v>0</v>
+      </c>
+      <c r="J53" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="C54" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>ROLLANDHeloise</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="F54" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="G54" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="H54" s="4">
+        <v>0</v>
+      </c>
+      <c r="I54" s="4">
+        <v>0</v>
+      </c>
+      <c r="J54" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>661</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="C55" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PONTYRomain</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="F55" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="G55" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="H55" s="4">
+        <v>0</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="J55" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C56" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>VIETBaptiste</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="F56" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="G56" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="H56" s="4">
+        <v>0</v>
+      </c>
+      <c r="I56" s="4">
+        <v>0</v>
+      </c>
+      <c r="J56" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C57" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>DELAHAYEBlandine</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="F57" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="G57" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="H57" s="4">
+        <v>0</v>
+      </c>
+      <c r="I57" s="4">
+        <v>3</v>
+      </c>
+      <c r="J57" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C58" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>BAILLETJeremy</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="F58" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="G58" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="H58" s="4">
+        <v>0</v>
+      </c>
+      <c r="I58" s="4">
+        <v>3</v>
+      </c>
+      <c r="J58" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C59" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>GIBRATLouise</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="F59" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="G59" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="H59" s="4">
+        <v>0</v>
+      </c>
+      <c r="I59" s="4">
+        <v>3</v>
+      </c>
+      <c r="J59" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C60" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>LAUZETAstrid</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="F60" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="G60" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="H60" s="4">
+        <v>0</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="J60" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C61" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>LEULLIETTELeonard</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="F61" s="4">
+        <v>4</v>
+      </c>
+      <c r="G61" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="H61" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="I61" s="4">
+        <v>0</v>
+      </c>
+      <c r="J61" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="C62" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>LOISEAU CLERFAYTSMaxence</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="F62" s="4">
+        <v>4</v>
+      </c>
+      <c r="G62" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="H62" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="I62" s="4">
+        <v>0</v>
+      </c>
+      <c r="J62" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="C63" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>JOURDIERJules</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="F63" s="4">
+        <v>4</v>
+      </c>
+      <c r="G63" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="H63" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="I63" s="4">
+        <v>0</v>
+      </c>
+      <c r="J63" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>676</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="C64" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>DESPRESMaylis</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="F64" s="4">
+        <v>4</v>
+      </c>
+      <c r="G64" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="H64" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="J64" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="C65" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>VALENTINInes</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="F65" s="4">
+        <v>4</v>
+      </c>
+      <c r="G65" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="H65" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="I65" s="4">
+        <v>0</v>
+      </c>
+      <c r="J65" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>681</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="C66" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>LE HANNIERDea</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>684</v>
+      </c>
+      <c r="F66" s="4">
+        <v>4</v>
+      </c>
+      <c r="G66" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="H66" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="I66" s="4">
+        <v>0</v>
+      </c>
+      <c r="J66" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C67" s="3" t="str">
+        <f t="shared" ref="C67:C108" si="1">A67&amp;B67</f>
+        <v>AUJARDNathan</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>685</v>
+      </c>
+      <c r="F67" s="4">
+        <v>3</v>
+      </c>
+      <c r="G67" s="4">
+        <v>0</v>
+      </c>
+      <c r="H67" s="4">
+        <v>0</v>
+      </c>
+      <c r="I67" s="4">
+        <v>3</v>
+      </c>
+      <c r="J67" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>686</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>687</v>
+      </c>
+      <c r="C68" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>DEBOUDTGatien</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>688</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F68" s="4">
+        <v>3</v>
+      </c>
+      <c r="G68" s="4">
+        <v>0</v>
+      </c>
+      <c r="H68" s="4">
+        <v>0</v>
+      </c>
+      <c r="I68" s="4">
+        <v>3</v>
+      </c>
+      <c r="J68" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C69" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>DES CHAMPS DE BOISHEBERTGwenaelle</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="F69" s="4">
+        <v>3</v>
+      </c>
+      <c r="G69" s="4">
+        <v>0</v>
+      </c>
+      <c r="H69" s="4">
+        <v>0</v>
+      </c>
+      <c r="I69" s="4">
+        <v>0</v>
+      </c>
+      <c r="J69" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="C70" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>DUDORETJules</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>690</v>
+      </c>
+      <c r="F70" s="4">
+        <v>3</v>
+      </c>
+      <c r="G70" s="4">
+        <v>0</v>
+      </c>
+      <c r="H70" s="4">
+        <v>0</v>
+      </c>
+      <c r="I70" s="4">
+        <v>0</v>
+      </c>
+      <c r="J70" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="C71" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>OLIVIERCamille</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>691</v>
+      </c>
+      <c r="F71" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="G71" s="4">
+        <v>0</v>
+      </c>
+      <c r="H71" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="I71" s="4">
+        <v>0</v>
+      </c>
+      <c r="J71" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="C72" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>PLATEAUCorentin</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="F72" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="G72" s="4">
+        <v>0</v>
+      </c>
+      <c r="H72" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="I72" s="4">
+        <v>0</v>
+      </c>
+      <c r="J72" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C73" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>BEAUDUCGregoire</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="F73" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="G73" s="4">
+        <v>0</v>
+      </c>
+      <c r="H73" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="I73" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="J73" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>694</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C74" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>CELISSEAntoine</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>696</v>
+      </c>
+      <c r="F74" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="G74" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="H74" s="4">
+        <v>0</v>
+      </c>
+      <c r="I74" s="4">
+        <v>0</v>
+      </c>
+      <c r="J74" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="C75" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>PECOURTBertille</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="F75" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="G75" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="H75" s="4">
+        <v>0</v>
+      </c>
+      <c r="I75" s="4">
+        <v>0</v>
+      </c>
+      <c r="J75" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>702</v>
+      </c>
+      <c r="C76" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>ROELENSEnguerrand</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>704</v>
+      </c>
+      <c r="F76" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="G76" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="H76" s="4">
+        <v>0</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="J76" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="C77" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>THEETTENHeloise</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="F77" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="G77" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="H77" s="4">
+        <v>0</v>
+      </c>
+      <c r="I77" s="4">
+        <v>0</v>
+      </c>
+      <c r="J77" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C78" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>HEUSSEVictorien</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="F78" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="G78" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="H78" s="4">
+        <v>0</v>
+      </c>
+      <c r="I78" s="4">
+        <v>0</v>
+      </c>
+      <c r="J78" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="C79" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>SOISSONEloise</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="F79" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="G79" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="H79" s="4">
+        <v>0</v>
+      </c>
+      <c r="I79" s="4">
+        <v>0</v>
+      </c>
+      <c r="J79" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>709</v>
+      </c>
+      <c r="C80" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>VITTABrad</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>710</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>711</v>
+      </c>
+      <c r="F80" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="G80" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="H80" s="4">
+        <v>0</v>
+      </c>
+      <c r="I80" s="4">
+        <v>0</v>
+      </c>
+      <c r="J80" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="C81" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>PELEFrancois</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>712</v>
+      </c>
+      <c r="F81" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="G81" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="H81" s="4">
+        <v>0</v>
+      </c>
+      <c r="I81" s="4">
+        <v>0</v>
+      </c>
+      <c r="J81" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="C82" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>AUBERTLucie</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="F82" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="G82" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="H82" s="4">
+        <v>0</v>
+      </c>
+      <c r="I82" s="4">
+        <v>0</v>
+      </c>
+      <c r="J82" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="C83" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>HAMOTPriscille</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="F83" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="G83" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="H83" s="4">
+        <v>0</v>
+      </c>
+      <c r="I83" s="4">
+        <v>0</v>
+      </c>
+      <c r="J83" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>719</v>
+      </c>
+      <c r="C84" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>FOULON-DETREZClelia</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>720</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>721</v>
+      </c>
+      <c r="F84" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="G84" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="H84" s="4">
+        <v>0</v>
+      </c>
+      <c r="I84" s="4">
+        <v>0</v>
+      </c>
+      <c r="J84" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C85" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>TAPPRESTLily</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F85" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="G85" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="H85" s="4">
+        <v>0</v>
+      </c>
+      <c r="I85" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="J85" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C86" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>BOUTILLIERHugo</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>724</v>
+      </c>
+      <c r="F86" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="G86" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="H86" s="4">
+        <v>0</v>
+      </c>
+      <c r="I86" s="4">
+        <v>0</v>
+      </c>
+      <c r="J86" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
+        <v>725</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="C87" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>VERDIERJulien</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>726</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>727</v>
+      </c>
+      <c r="F87" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="G87" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="H87" s="4">
+        <v>0</v>
+      </c>
+      <c r="I87" s="4">
+        <v>0</v>
+      </c>
+      <c r="J87" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C88" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>GENTIENFlavie</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>728</v>
+      </c>
+      <c r="F88" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="G88" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="H88" s="4">
+        <v>0</v>
+      </c>
+      <c r="I88" s="4">
+        <v>0</v>
+      </c>
+      <c r="J88" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="C89" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>GARROTMathis</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>729</v>
+      </c>
+      <c r="F89" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="G89" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="H89" s="4">
+        <v>0</v>
+      </c>
+      <c r="I89" s="4">
+        <v>0</v>
+      </c>
+      <c r="J89" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C90" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>CHAZARENC RADIXZian</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>730</v>
+      </c>
+      <c r="F90" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="G90" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="H90" s="4">
+        <v>0</v>
+      </c>
+      <c r="I90" s="4">
+        <v>0</v>
+      </c>
+      <c r="J90" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
+        <v>731</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C91" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>MENNERET-COUTURIERHugo</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>732</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>733</v>
+      </c>
+      <c r="F91" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="G91" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="H91" s="4">
+        <v>0</v>
+      </c>
+      <c r="I91" s="4">
+        <v>0</v>
+      </c>
+      <c r="J91" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="C92" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>HARDYLouis</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="F92" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="G92" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="H92" s="4">
+        <v>0</v>
+      </c>
+      <c r="I92" s="4">
+        <v>0</v>
+      </c>
+      <c r="J92" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
+        <v>735</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>736</v>
+      </c>
+      <c r="C93" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>GUITTARDClementine</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>737</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="F93" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="G93" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="H93" s="4">
+        <v>0</v>
+      </c>
+      <c r="I93" s="4">
+        <v>0</v>
+      </c>
+      <c r="J93" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A94" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C94" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>FONDMaxime</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>739</v>
+      </c>
+      <c r="F94" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="G94" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="J94" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C95" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>VIEIRA-MARTINSThomas</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>740</v>
+      </c>
+      <c r="F95" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="G95" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="H95" s="4">
+        <v>0</v>
+      </c>
+      <c r="I95" s="4">
+        <v>0</v>
+      </c>
+      <c r="J95" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A96" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C96" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>LAURYJuliette</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="F96" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="G96" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="H96" s="4">
+        <v>0</v>
+      </c>
+      <c r="I96" s="4">
+        <v>0</v>
+      </c>
+      <c r="J96" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A97" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="C97" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>PETITPaul</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>742</v>
+      </c>
+      <c r="F97" s="4">
+        <v>0</v>
+      </c>
+      <c r="G97" s="4">
+        <v>0</v>
+      </c>
+      <c r="H97" s="4">
+        <v>0</v>
+      </c>
+      <c r="I97" s="4">
+        <v>0</v>
+      </c>
+      <c r="J97" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
+        <v>743</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>744</v>
+      </c>
+      <c r="C98" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>SAMPERSLucile</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>745</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>746</v>
+      </c>
+      <c r="F98" s="4">
+        <v>0</v>
+      </c>
+      <c r="G98" s="4">
+        <v>0</v>
+      </c>
+      <c r="H98" s="4">
+        <v>0</v>
+      </c>
+      <c r="I98" s="4">
+        <v>0</v>
+      </c>
+      <c r="J98" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A99" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C99" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>MAGNIER DE MAISONNEUVEJeanne</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>747</v>
+      </c>
+      <c r="F99" s="4">
+        <v>0</v>
+      </c>
+      <c r="G99" s="4">
+        <v>0</v>
+      </c>
+      <c r="H99" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I99" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="J99" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A100" s="3" t="s">
+        <v>748</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="C100" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>GAILLARD DE SAINT GERMAINLouis</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>749</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="F100" s="4">
+        <v>0</v>
+      </c>
+      <c r="G100" s="4">
+        <v>0</v>
+      </c>
+      <c r="H100" s="4">
+        <v>0</v>
+      </c>
+      <c r="I100" s="4">
+        <v>0</v>
+      </c>
+      <c r="J100" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A101" s="3" t="s">
+        <v>750</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="C101" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>DE COSTEREliot</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>751</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>752</v>
+      </c>
+      <c r="F101" s="4">
+        <v>0</v>
+      </c>
+      <c r="G101" s="4">
+        <v>0</v>
+      </c>
+      <c r="H101" s="4">
+        <v>0</v>
+      </c>
+      <c r="I101" s="4">
+        <v>0</v>
+      </c>
+      <c r="J101" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A102" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="C102" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>LAMBERTMarion</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>753</v>
+      </c>
+      <c r="F102" s="4">
+        <v>0</v>
+      </c>
+      <c r="G102" s="4">
+        <v>0</v>
+      </c>
+      <c r="H102" s="4">
+        <v>0</v>
+      </c>
+      <c r="I102" s="4">
+        <v>0</v>
+      </c>
+      <c r="J102" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A103" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="C103" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>GODEBERTBrice</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>756</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>757</v>
+      </c>
+      <c r="F103" s="4">
+        <v>0</v>
+      </c>
+      <c r="G103" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="H103" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I103" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="J103" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A104" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C104" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>HOQUETJustine</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>758</v>
+      </c>
+      <c r="F104" s="4">
+        <v>0</v>
+      </c>
+      <c r="G104" s="4">
+        <v>0</v>
+      </c>
+      <c r="H104" s="4">
+        <v>0</v>
+      </c>
+      <c r="I104" s="4">
+        <v>0</v>
+      </c>
+      <c r="J104" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A105" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C105" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>BOEHLEREnzo</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>759</v>
+      </c>
+      <c r="F105" s="4">
+        <v>0</v>
+      </c>
+      <c r="G105" s="4">
+        <v>0</v>
+      </c>
+      <c r="H105" s="4">
+        <v>0</v>
+      </c>
+      <c r="I105" s="4">
+        <v>0</v>
+      </c>
+      <c r="J105" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>257</v>
+      </c>
+      <c r="B106" t="s">
+        <v>381</v>
+      </c>
+      <c r="C106" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>DECULTOTAmelie</v>
+      </c>
+      <c r="D106" t="s">
+        <v>382</v>
+      </c>
+      <c r="E106" t="s">
+        <v>760</v>
+      </c>
+      <c r="F106">
+        <v>10</v>
+      </c>
+      <c r="G106">
+        <v>1.5</v>
+      </c>
+      <c r="H106">
+        <v>2.5</v>
+      </c>
+      <c r="I106">
+        <v>3</v>
+      </c>
+      <c r="J106">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>383</v>
+      </c>
+      <c r="B107" t="s">
+        <v>384</v>
+      </c>
+      <c r="C107" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>MENASSACybele</v>
+      </c>
+      <c r="D107" t="s">
+        <v>385</v>
+      </c>
+      <c r="E107" t="s">
+        <v>761</v>
+      </c>
+      <c r="F107">
+        <v>7</v>
+      </c>
+      <c r="G107">
+        <v>1.5</v>
+      </c>
+      <c r="H107">
+        <v>2.5</v>
+      </c>
+      <c r="I107" t="s">
+        <v>81</v>
+      </c>
+      <c r="J107">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>391</v>
+      </c>
+      <c r="B108" t="s">
+        <v>91</v>
+      </c>
+      <c r="C108" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>IDELOTLouise</v>
+      </c>
+      <c r="D108" t="s">
+        <v>392</v>
+      </c>
+      <c r="E108" t="s">
+        <v>564</v>
+      </c>
+      <c r="F108">
+        <v>1.5</v>
+      </c>
+      <c r="G108">
+        <v>1.5</v>
+      </c>
+      <c r="H108">
+        <v>0</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108">
         <v>0</v>
       </c>
     </row>
